--- a/qualtcom/Organizacional/Calidad/Checklist_Organizacional_YYMMDD.xlsx
+++ b/qualtcom/Organizacional/Calidad/Checklist_Organizacional_YYMMDD.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\qtp\qualtcom\Organizacional\Calidad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inf. Gral." sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Productos" sheetId="3" r:id="rId3"/>
     <sheet name="No Conformidades" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -202,22 +207,31 @@
     <t>Reporte de Monitoreo</t>
   </si>
   <si>
-    <t>¿Se revisaron los hitos?</t>
-  </si>
-  <si>
     <t>¿Se revisaron los resultados de las auditorias?</t>
   </si>
   <si>
     <t>¿Se analizaron los riesgos?</t>
   </si>
   <si>
-    <t>¿Se reviso que el plan de respaldos este actualizado?</t>
-  </si>
-  <si>
-    <t>¿Se revisaron los costos planeados y reales?</t>
-  </si>
-  <si>
-    <t>¿Se reviso el esfuerzo planeado y real?</t>
+    <t>¿Se revisó que los hitos se encontraran completos?(Nombre del hito, fecha planeada y fecha real)</t>
+  </si>
+  <si>
+    <t>¿Se revisaron que los costos planeados y reales sean consistentes al proyecto especificado?</t>
+  </si>
+  <si>
+    <t>¿Se reviso que el esfuerzo planeado y real sean consistentes al proyecto?</t>
+  </si>
+  <si>
+    <t>De acuerdo a dichos resultados, ¿se realizó el análisis de los mismos?</t>
+  </si>
+  <si>
+    <t>¿Se le están agregando comentarios para el seguimiento de los riesgos ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Se revisó que el plan de respaldos se haya llevado a cabo en tiempo y forma? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Se asignó un responsable para la realización de los respaldos? </t>
   </si>
 </sst>
 </file>
@@ -514,42 +528,15 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+  </cellStyleXfs>
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -646,6 +633,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -726,6 +737,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -773,7 +787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,7 +822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,38 +1031,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK22"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="10"/>
-    <col min="2" max="2" width="52.21875" style="10"/>
-    <col min="3" max="3" width="20.6640625" style="10"/>
-    <col min="4" max="4" width="20.5546875" style="10"/>
-    <col min="5" max="5" width="12.6640625" style="10"/>
-    <col min="6" max="6" width="11.21875" style="10"/>
-    <col min="7" max="7" width="10.77734375" style="10"/>
-    <col min="8" max="8" width="23.21875" style="10"/>
-    <col min="9" max="1025" width="11.5546875" style="10"/>
+    <col min="1" max="1" width="2.5703125" style="1"/>
+    <col min="2" max="2" width="52.28515625" style="1"/>
+    <col min="3" max="3" width="20.7109375" style="1"/>
+    <col min="4" max="4" width="20.5703125" style="1"/>
+    <col min="5" max="5" width="12.7109375" style="1"/>
+    <col min="6" max="6" width="11.28515625" style="1"/>
+    <col min="7" max="7" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="23.28515625" style="1"/>
+    <col min="9" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="11"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="2"/>
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.2">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1057,38 +1071,38 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="13.8" customHeight="1">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:7" ht="13.9" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -1096,125 +1110,122 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B12" s="18" t="str">
+      <c r="B12" s="9" t="str">
         <f>Procesos!A4</f>
         <v>Calidad</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="8">
         <f>COUNTA(Procesos!C5:C9)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="19" t="e">
+      <c r="D12" s="10" t="e">
         <f>COUNTIF((Procesos!C5:C9),"x")/(COUNTIF((Procesos!C5:C9),"x")+COUNTIF((Procesos!D5:D9),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B13" s="18" t="str">
+      <c r="B13" s="9" t="str">
         <f>Procesos!A10</f>
         <v>Medición y Monitoreo</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="8">
         <f>COUNTA(Procesos!C11:C14)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="19" t="e">
+      <c r="D13" s="10" t="e">
         <f>COUNTIF((Procesos!C11:C14),"x")/(COUNTIF((Procesos!C11:C14),"x")+COUNTIF((Procesos!D11:D14),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8"/>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B17" s="18" t="str">
+      <c r="B17" s="9" t="str">
         <f>Productos!B4</f>
         <v>Plan de calidad</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="8">
         <f>COUNTA(Productos!D5:D9)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19" t="e">
+      <c r="D17" s="10" t="e">
         <f>COUNTIF((Productos!D5:D9),"x")/(COUNTIF((Productos!D5:D9),"x")+COUNTIF((Productos!E5:E9),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B18" s="18" t="str">
+      <c r="B18" s="9" t="str">
         <f>Productos!B10</f>
         <v>Plan Métricas</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="8">
         <f>COUNTA(Productos!D11:D17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19" t="e">
+      <c r="D18" s="10" t="e">
         <f>COUNTIF((Productos!D11:D17),"x")/(COUNTIF((Productos!D11:D17),"x")+COUNTIF((Productos!E11:E17),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B19" s="18" t="str">
+      <c r="B19" s="9" t="str">
         <f>Productos!B18</f>
         <v>Plan de la configuración</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="8">
         <f>COUNTA(Productos!D19:D25)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="19" t="e">
+      <c r="D19" s="10" t="e">
         <f>COUNTIF((Productos!D19:D25),"x")/(COUNTIF((Productos!D19:D25),"x")+COUNTIF((Productos!E19:E25),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B20" s="65" t="str">
+      <c r="B20" s="56" t="str">
         <f>Productos!B26</f>
         <v>Reporte de Monitoreo</v>
       </c>
-      <c r="C20" s="17">
-        <f>COUNTA(Productos!D27:D32)</f>
+      <c r="C20" s="8">
+        <f>COUNTA(Productos!D27:D35)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="19" t="e">
-        <f>COUNTIF((Productos!D27:D32),"x")/(COUNTIF((Productos!D27:D32),"x")+COUNTIF((Productos!E27:E32),"x"))</f>
+      <c r="D20" s="10" t="e">
+        <f>COUNTIF((Productos!D27:D35),"x")/(COUNTIF((Productos!D27:D35),"x")+COUNTIF((Productos!E27:E35),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="13.8"/>
-    <row r="22" spans="2:4" ht="13.8"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C7:F7"/>
@@ -1232,194 +1243,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI16"/>
+  <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="21"/>
-    <col min="2" max="2" width="64" style="21"/>
-    <col min="3" max="3" width="5.33203125" style="21"/>
-    <col min="4" max="4" width="5.21875" style="21"/>
-    <col min="5" max="5" width="10.109375" style="21"/>
-    <col min="6" max="6" width="19.33203125" style="21"/>
-    <col min="7" max="7" width="3.5546875" style="21"/>
-    <col min="8" max="1023" width="11.6640625" style="21"/>
-    <col min="1024" max="1025" width="11.6640625"/>
+    <col min="1" max="1" width="3.5703125" style="12"/>
+    <col min="2" max="2" width="64" style="12"/>
+    <col min="3" max="4" width="5.28515625" style="12"/>
+    <col min="5" max="5" width="10.140625" style="12"/>
+    <col min="6" max="6" width="19.28515625" style="12"/>
+    <col min="7" max="7" width="3.5703125" style="12"/>
+    <col min="8" max="1023" width="11.7109375" style="12"/>
+    <col min="1024" max="1025" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="13.2" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.15" customHeight="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="24" t="s">
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.2" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.15" customHeight="1">
+      <c r="A4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="30"/>
-      <c r="B5" s="15" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="21"/>
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6">
-      <c r="A6" s="30"/>
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="21"/>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6">
-      <c r="A7" s="30"/>
-      <c r="B7" s="15" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="21"/>
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6">
-      <c r="A8" s="30"/>
-      <c r="B8" s="15" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="21"/>
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8">
-      <c r="A9" s="34"/>
-      <c r="B9" s="15" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="25"/>
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8">
-      <c r="A11" s="37"/>
-      <c r="B11" s="15" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="28"/>
+      <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8">
-      <c r="A12" s="37"/>
-      <c r="B12" s="15" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="28"/>
+      <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8">
-      <c r="A13" s="37"/>
-      <c r="B13" s="15" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="28"/>
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8">
-      <c r="A14" s="37"/>
-      <c r="B14" s="15" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="28"/>
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.2"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A10:B10"/>
@@ -1438,407 +1447,4509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="40"/>
-    <col min="2" max="2" width="3.44140625" style="40"/>
-    <col min="3" max="3" width="61.77734375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="40"/>
-    <col min="5" max="5" width="6.109375" style="40"/>
-    <col min="6" max="6" width="11.5546875" style="40"/>
-    <col min="7" max="7" width="35.77734375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" style="40"/>
-    <col min="9" max="1025" width="11.5546875" style="40"/>
+    <col min="1" max="1" width="3.28515625" style="31"/>
+    <col min="2" max="2" width="3.42578125" style="31"/>
+    <col min="3" max="3" width="61.7109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="31"/>
+    <col min="5" max="5" width="6.140625" style="31"/>
+    <col min="6" max="6" width="11.5703125" style="31"/>
+    <col min="7" max="7" width="35.7109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="31"/>
+    <col min="9" max="1025" width="11.5703125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.15" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="24" t="s">
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.15" customHeight="1">
+      <c r="A4" s="34"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="27">
-      <c r="B5" s="47"/>
-      <c r="C5" s="51" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="48"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.2">
-      <c r="B6" s="49"/>
-      <c r="C6" s="64" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="40"/>
+      <c r="C6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.2">
-      <c r="B7" s="49"/>
-      <c r="C7" s="64" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="40"/>
+      <c r="C7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.2">
-      <c r="B8" s="49"/>
-      <c r="C8" s="64" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="40"/>
+      <c r="C8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.2">
-      <c r="B9" s="49"/>
-      <c r="C9" s="64" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="40"/>
+      <c r="C9" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.8">
-      <c r="B11" s="54"/>
-      <c r="C11" s="64" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="45"/>
+      <c r="C11" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="48"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B12" s="54"/>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="1:8" ht="13.8">
-      <c r="B13" s="54"/>
-      <c r="C13" s="64" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="45"/>
+      <c r="C13" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.8">
-      <c r="B14" s="54"/>
-      <c r="C14" s="64" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="45"/>
+      <c r="C14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.8">
-      <c r="B15" s="54"/>
-      <c r="C15" s="64" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="45"/>
+      <c r="C15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="48"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.8">
-      <c r="B16" s="54"/>
-      <c r="C16" s="64" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="45"/>
+      <c r="C16" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="2:8" ht="13.8">
-      <c r="B17" s="54"/>
-      <c r="C17" s="64" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:1025">
+      <c r="B17" s="45"/>
+      <c r="C17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.6">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:1025" ht="15.75">
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="2:8" ht="27">
-      <c r="B19" s="47"/>
-      <c r="C19" s="51" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:1025" ht="26.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="48"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.6">
-      <c r="B20" s="47"/>
-      <c r="C20" s="64" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:1025" ht="15.75">
+      <c r="B20" s="38"/>
+      <c r="C20" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" spans="2:8" ht="13.2" customHeight="1">
-      <c r="B21" s="47"/>
-      <c r="C21" s="51" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:1025" ht="13.15" customHeight="1">
+      <c r="B21" s="38"/>
+      <c r="C21" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.6">
-      <c r="B22" s="47"/>
-      <c r="C22" s="51" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:1025" ht="15.75">
+      <c r="B22" s="38"/>
+      <c r="C22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23" spans="2:8" ht="15.6">
-      <c r="B23" s="47"/>
-      <c r="C23" s="51" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="1:1025" ht="15.75">
+      <c r="B23" s="38"/>
+      <c r="C23" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="48"/>
-    </row>
-    <row r="24" spans="2:8" ht="15.6">
-      <c r="B24" s="47"/>
-      <c r="C24" s="64" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:1025" ht="15.75">
+      <c r="B24" s="38"/>
+      <c r="C24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.6">
-      <c r="B25" s="47"/>
-      <c r="C25" s="51" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:1025" ht="15.75">
+      <c r="B25" s="38"/>
+      <c r="C25" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="48"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.6">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:1025" ht="15.75">
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="2:8" ht="16.2">
-      <c r="B27" s="47"/>
-      <c r="C27" s="51" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:1025" ht="27">
+      <c r="B27" s="38"/>
+      <c r="C27" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:1025" ht="26.25">
+      <c r="B28" s="38"/>
+      <c r="C28" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:1025" ht="26.25">
+      <c r="B29" s="38"/>
+      <c r="C29" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:1025" ht="15.75">
+      <c r="B30" s="38"/>
+      <c r="C30" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" spans="2:8" ht="15.6">
-      <c r="B28" s="47"/>
-      <c r="C28" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.6">
-      <c r="B29" s="47"/>
-      <c r="C29" s="51" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:1025" ht="15.75">
+      <c r="A31" s="34"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="47"/>
-    </row>
-    <row r="30" spans="2:8" ht="15.6">
-      <c r="B30" s="47"/>
-      <c r="C30" s="51" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="34"/>
+      <c r="AT31" s="34"/>
+      <c r="AU31" s="34"/>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="34"/>
+      <c r="AX31" s="34"/>
+      <c r="AY31" s="34"/>
+      <c r="AZ31" s="34"/>
+      <c r="BA31" s="34"/>
+      <c r="BB31" s="34"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="34"/>
+      <c r="BE31" s="34"/>
+      <c r="BF31" s="34"/>
+      <c r="BG31" s="34"/>
+      <c r="BH31" s="34"/>
+      <c r="BI31" s="34"/>
+      <c r="BJ31" s="34"/>
+      <c r="BK31" s="34"/>
+      <c r="BL31" s="34"/>
+      <c r="BM31" s="34"/>
+      <c r="BN31" s="34"/>
+      <c r="BO31" s="34"/>
+      <c r="BP31" s="34"/>
+      <c r="BQ31" s="34"/>
+      <c r="BR31" s="34"/>
+      <c r="BS31" s="34"/>
+      <c r="BT31" s="34"/>
+      <c r="BU31" s="34"/>
+      <c r="BV31" s="34"/>
+      <c r="BW31" s="34"/>
+      <c r="BX31" s="34"/>
+      <c r="BY31" s="34"/>
+      <c r="BZ31" s="34"/>
+      <c r="CA31" s="34"/>
+      <c r="CB31" s="34"/>
+      <c r="CC31" s="34"/>
+      <c r="CD31" s="34"/>
+      <c r="CE31" s="34"/>
+      <c r="CF31" s="34"/>
+      <c r="CG31" s="34"/>
+      <c r="CH31" s="34"/>
+      <c r="CI31" s="34"/>
+      <c r="CJ31" s="34"/>
+      <c r="CK31" s="34"/>
+      <c r="CL31" s="34"/>
+      <c r="CM31" s="34"/>
+      <c r="CN31" s="34"/>
+      <c r="CO31" s="34"/>
+      <c r="CP31" s="34"/>
+      <c r="CQ31" s="34"/>
+      <c r="CR31" s="34"/>
+      <c r="CS31" s="34"/>
+      <c r="CT31" s="34"/>
+      <c r="CU31" s="34"/>
+      <c r="CV31" s="34"/>
+      <c r="CW31" s="34"/>
+      <c r="CX31" s="34"/>
+      <c r="CY31" s="34"/>
+      <c r="CZ31" s="34"/>
+      <c r="DA31" s="34"/>
+      <c r="DB31" s="34"/>
+      <c r="DC31" s="34"/>
+      <c r="DD31" s="34"/>
+      <c r="DE31" s="34"/>
+      <c r="DF31" s="34"/>
+      <c r="DG31" s="34"/>
+      <c r="DH31" s="34"/>
+      <c r="DI31" s="34"/>
+      <c r="DJ31" s="34"/>
+      <c r="DK31" s="34"/>
+      <c r="DL31" s="34"/>
+      <c r="DM31" s="34"/>
+      <c r="DN31" s="34"/>
+      <c r="DO31" s="34"/>
+      <c r="DP31" s="34"/>
+      <c r="DQ31" s="34"/>
+      <c r="DR31" s="34"/>
+      <c r="DS31" s="34"/>
+      <c r="DT31" s="34"/>
+      <c r="DU31" s="34"/>
+      <c r="DV31" s="34"/>
+      <c r="DW31" s="34"/>
+      <c r="DX31" s="34"/>
+      <c r="DY31" s="34"/>
+      <c r="DZ31" s="34"/>
+      <c r="EA31" s="34"/>
+      <c r="EB31" s="34"/>
+      <c r="EC31" s="34"/>
+      <c r="ED31" s="34"/>
+      <c r="EE31" s="34"/>
+      <c r="EF31" s="34"/>
+      <c r="EG31" s="34"/>
+      <c r="EH31" s="34"/>
+      <c r="EI31" s="34"/>
+      <c r="EJ31" s="34"/>
+      <c r="EK31" s="34"/>
+      <c r="EL31" s="34"/>
+      <c r="EM31" s="34"/>
+      <c r="EN31" s="34"/>
+      <c r="EO31" s="34"/>
+      <c r="EP31" s="34"/>
+      <c r="EQ31" s="34"/>
+      <c r="ER31" s="34"/>
+      <c r="ES31" s="34"/>
+      <c r="ET31" s="34"/>
+      <c r="EU31" s="34"/>
+      <c r="EV31" s="34"/>
+      <c r="EW31" s="34"/>
+      <c r="EX31" s="34"/>
+      <c r="EY31" s="34"/>
+      <c r="EZ31" s="34"/>
+      <c r="FA31" s="34"/>
+      <c r="FB31" s="34"/>
+      <c r="FC31" s="34"/>
+      <c r="FD31" s="34"/>
+      <c r="FE31" s="34"/>
+      <c r="FF31" s="34"/>
+      <c r="FG31" s="34"/>
+      <c r="FH31" s="34"/>
+      <c r="FI31" s="34"/>
+      <c r="FJ31" s="34"/>
+      <c r="FK31" s="34"/>
+      <c r="FL31" s="34"/>
+      <c r="FM31" s="34"/>
+      <c r="FN31" s="34"/>
+      <c r="FO31" s="34"/>
+      <c r="FP31" s="34"/>
+      <c r="FQ31" s="34"/>
+      <c r="FR31" s="34"/>
+      <c r="FS31" s="34"/>
+      <c r="FT31" s="34"/>
+      <c r="FU31" s="34"/>
+      <c r="FV31" s="34"/>
+      <c r="FW31" s="34"/>
+      <c r="FX31" s="34"/>
+      <c r="FY31" s="34"/>
+      <c r="FZ31" s="34"/>
+      <c r="GA31" s="34"/>
+      <c r="GB31" s="34"/>
+      <c r="GC31" s="34"/>
+      <c r="GD31" s="34"/>
+      <c r="GE31" s="34"/>
+      <c r="GF31" s="34"/>
+      <c r="GG31" s="34"/>
+      <c r="GH31" s="34"/>
+      <c r="GI31" s="34"/>
+      <c r="GJ31" s="34"/>
+      <c r="GK31" s="34"/>
+      <c r="GL31" s="34"/>
+      <c r="GM31" s="34"/>
+      <c r="GN31" s="34"/>
+      <c r="GO31" s="34"/>
+      <c r="GP31" s="34"/>
+      <c r="GQ31" s="34"/>
+      <c r="GR31" s="34"/>
+      <c r="GS31" s="34"/>
+      <c r="GT31" s="34"/>
+      <c r="GU31" s="34"/>
+      <c r="GV31" s="34"/>
+      <c r="GW31" s="34"/>
+      <c r="GX31" s="34"/>
+      <c r="GY31" s="34"/>
+      <c r="GZ31" s="34"/>
+      <c r="HA31" s="34"/>
+      <c r="HB31" s="34"/>
+      <c r="HC31" s="34"/>
+      <c r="HD31" s="34"/>
+      <c r="HE31" s="34"/>
+      <c r="HF31" s="34"/>
+      <c r="HG31" s="34"/>
+      <c r="HH31" s="34"/>
+      <c r="HI31" s="34"/>
+      <c r="HJ31" s="34"/>
+      <c r="HK31" s="34"/>
+      <c r="HL31" s="34"/>
+      <c r="HM31" s="34"/>
+      <c r="HN31" s="34"/>
+      <c r="HO31" s="34"/>
+      <c r="HP31" s="34"/>
+      <c r="HQ31" s="34"/>
+      <c r="HR31" s="34"/>
+      <c r="HS31" s="34"/>
+      <c r="HT31" s="34"/>
+      <c r="HU31" s="34"/>
+      <c r="HV31" s="34"/>
+      <c r="HW31" s="34"/>
+      <c r="HX31" s="34"/>
+      <c r="HY31" s="34"/>
+      <c r="HZ31" s="34"/>
+      <c r="IA31" s="34"/>
+      <c r="IB31" s="34"/>
+      <c r="IC31" s="34"/>
+      <c r="ID31" s="34"/>
+      <c r="IE31" s="34"/>
+      <c r="IF31" s="34"/>
+      <c r="IG31" s="34"/>
+      <c r="IH31" s="34"/>
+      <c r="II31" s="34"/>
+      <c r="IJ31" s="34"/>
+      <c r="IK31" s="34"/>
+      <c r="IL31" s="34"/>
+      <c r="IM31" s="34"/>
+      <c r="IN31" s="34"/>
+      <c r="IO31" s="34"/>
+      <c r="IP31" s="34"/>
+      <c r="IQ31" s="34"/>
+      <c r="IR31" s="34"/>
+      <c r="IS31" s="34"/>
+      <c r="IT31" s="34"/>
+      <c r="IU31" s="34"/>
+      <c r="IV31" s="34"/>
+      <c r="IW31" s="34"/>
+      <c r="IX31" s="34"/>
+      <c r="IY31" s="34"/>
+      <c r="IZ31" s="34"/>
+      <c r="JA31" s="34"/>
+      <c r="JB31" s="34"/>
+      <c r="JC31" s="34"/>
+      <c r="JD31" s="34"/>
+      <c r="JE31" s="34"/>
+      <c r="JF31" s="34"/>
+      <c r="JG31" s="34"/>
+      <c r="JH31" s="34"/>
+      <c r="JI31" s="34"/>
+      <c r="JJ31" s="34"/>
+      <c r="JK31" s="34"/>
+      <c r="JL31" s="34"/>
+      <c r="JM31" s="34"/>
+      <c r="JN31" s="34"/>
+      <c r="JO31" s="34"/>
+      <c r="JP31" s="34"/>
+      <c r="JQ31" s="34"/>
+      <c r="JR31" s="34"/>
+      <c r="JS31" s="34"/>
+      <c r="JT31" s="34"/>
+      <c r="JU31" s="34"/>
+      <c r="JV31" s="34"/>
+      <c r="JW31" s="34"/>
+      <c r="JX31" s="34"/>
+      <c r="JY31" s="34"/>
+      <c r="JZ31" s="34"/>
+      <c r="KA31" s="34"/>
+      <c r="KB31" s="34"/>
+      <c r="KC31" s="34"/>
+      <c r="KD31" s="34"/>
+      <c r="KE31" s="34"/>
+      <c r="KF31" s="34"/>
+      <c r="KG31" s="34"/>
+      <c r="KH31" s="34"/>
+      <c r="KI31" s="34"/>
+      <c r="KJ31" s="34"/>
+      <c r="KK31" s="34"/>
+      <c r="KL31" s="34"/>
+      <c r="KM31" s="34"/>
+      <c r="KN31" s="34"/>
+      <c r="KO31" s="34"/>
+      <c r="KP31" s="34"/>
+      <c r="KQ31" s="34"/>
+      <c r="KR31" s="34"/>
+      <c r="KS31" s="34"/>
+      <c r="KT31" s="34"/>
+      <c r="KU31" s="34"/>
+      <c r="KV31" s="34"/>
+      <c r="KW31" s="34"/>
+      <c r="KX31" s="34"/>
+      <c r="KY31" s="34"/>
+      <c r="KZ31" s="34"/>
+      <c r="LA31" s="34"/>
+      <c r="LB31" s="34"/>
+      <c r="LC31" s="34"/>
+      <c r="LD31" s="34"/>
+      <c r="LE31" s="34"/>
+      <c r="LF31" s="34"/>
+      <c r="LG31" s="34"/>
+      <c r="LH31" s="34"/>
+      <c r="LI31" s="34"/>
+      <c r="LJ31" s="34"/>
+      <c r="LK31" s="34"/>
+      <c r="LL31" s="34"/>
+      <c r="LM31" s="34"/>
+      <c r="LN31" s="34"/>
+      <c r="LO31" s="34"/>
+      <c r="LP31" s="34"/>
+      <c r="LQ31" s="34"/>
+      <c r="LR31" s="34"/>
+      <c r="LS31" s="34"/>
+      <c r="LT31" s="34"/>
+      <c r="LU31" s="34"/>
+      <c r="LV31" s="34"/>
+      <c r="LW31" s="34"/>
+      <c r="LX31" s="34"/>
+      <c r="LY31" s="34"/>
+      <c r="LZ31" s="34"/>
+      <c r="MA31" s="34"/>
+      <c r="MB31" s="34"/>
+      <c r="MC31" s="34"/>
+      <c r="MD31" s="34"/>
+      <c r="ME31" s="34"/>
+      <c r="MF31" s="34"/>
+      <c r="MG31" s="34"/>
+      <c r="MH31" s="34"/>
+      <c r="MI31" s="34"/>
+      <c r="MJ31" s="34"/>
+      <c r="MK31" s="34"/>
+      <c r="ML31" s="34"/>
+      <c r="MM31" s="34"/>
+      <c r="MN31" s="34"/>
+      <c r="MO31" s="34"/>
+      <c r="MP31" s="34"/>
+      <c r="MQ31" s="34"/>
+      <c r="MR31" s="34"/>
+      <c r="MS31" s="34"/>
+      <c r="MT31" s="34"/>
+      <c r="MU31" s="34"/>
+      <c r="MV31" s="34"/>
+      <c r="MW31" s="34"/>
+      <c r="MX31" s="34"/>
+      <c r="MY31" s="34"/>
+      <c r="MZ31" s="34"/>
+      <c r="NA31" s="34"/>
+      <c r="NB31" s="34"/>
+      <c r="NC31" s="34"/>
+      <c r="ND31" s="34"/>
+      <c r="NE31" s="34"/>
+      <c r="NF31" s="34"/>
+      <c r="NG31" s="34"/>
+      <c r="NH31" s="34"/>
+      <c r="NI31" s="34"/>
+      <c r="NJ31" s="34"/>
+      <c r="NK31" s="34"/>
+      <c r="NL31" s="34"/>
+      <c r="NM31" s="34"/>
+      <c r="NN31" s="34"/>
+      <c r="NO31" s="34"/>
+      <c r="NP31" s="34"/>
+      <c r="NQ31" s="34"/>
+      <c r="NR31" s="34"/>
+      <c r="NS31" s="34"/>
+      <c r="NT31" s="34"/>
+      <c r="NU31" s="34"/>
+      <c r="NV31" s="34"/>
+      <c r="NW31" s="34"/>
+      <c r="NX31" s="34"/>
+      <c r="NY31" s="34"/>
+      <c r="NZ31" s="34"/>
+      <c r="OA31" s="34"/>
+      <c r="OB31" s="34"/>
+      <c r="OC31" s="34"/>
+      <c r="OD31" s="34"/>
+      <c r="OE31" s="34"/>
+      <c r="OF31" s="34"/>
+      <c r="OG31" s="34"/>
+      <c r="OH31" s="34"/>
+      <c r="OI31" s="34"/>
+      <c r="OJ31" s="34"/>
+      <c r="OK31" s="34"/>
+      <c r="OL31" s="34"/>
+      <c r="OM31" s="34"/>
+      <c r="ON31" s="34"/>
+      <c r="OO31" s="34"/>
+      <c r="OP31" s="34"/>
+      <c r="OQ31" s="34"/>
+      <c r="OR31" s="34"/>
+      <c r="OS31" s="34"/>
+      <c r="OT31" s="34"/>
+      <c r="OU31" s="34"/>
+      <c r="OV31" s="34"/>
+      <c r="OW31" s="34"/>
+      <c r="OX31" s="34"/>
+      <c r="OY31" s="34"/>
+      <c r="OZ31" s="34"/>
+      <c r="PA31" s="34"/>
+      <c r="PB31" s="34"/>
+      <c r="PC31" s="34"/>
+      <c r="PD31" s="34"/>
+      <c r="PE31" s="34"/>
+      <c r="PF31" s="34"/>
+      <c r="PG31" s="34"/>
+      <c r="PH31" s="34"/>
+      <c r="PI31" s="34"/>
+      <c r="PJ31" s="34"/>
+      <c r="PK31" s="34"/>
+      <c r="PL31" s="34"/>
+      <c r="PM31" s="34"/>
+      <c r="PN31" s="34"/>
+      <c r="PO31" s="34"/>
+      <c r="PP31" s="34"/>
+      <c r="PQ31" s="34"/>
+      <c r="PR31" s="34"/>
+      <c r="PS31" s="34"/>
+      <c r="PT31" s="34"/>
+      <c r="PU31" s="34"/>
+      <c r="PV31" s="34"/>
+      <c r="PW31" s="34"/>
+      <c r="PX31" s="34"/>
+      <c r="PY31" s="34"/>
+      <c r="PZ31" s="34"/>
+      <c r="QA31" s="34"/>
+      <c r="QB31" s="34"/>
+      <c r="QC31" s="34"/>
+      <c r="QD31" s="34"/>
+      <c r="QE31" s="34"/>
+      <c r="QF31" s="34"/>
+      <c r="QG31" s="34"/>
+      <c r="QH31" s="34"/>
+      <c r="QI31" s="34"/>
+      <c r="QJ31" s="34"/>
+      <c r="QK31" s="34"/>
+      <c r="QL31" s="34"/>
+      <c r="QM31" s="34"/>
+      <c r="QN31" s="34"/>
+      <c r="QO31" s="34"/>
+      <c r="QP31" s="34"/>
+      <c r="QQ31" s="34"/>
+      <c r="QR31" s="34"/>
+      <c r="QS31" s="34"/>
+      <c r="QT31" s="34"/>
+      <c r="QU31" s="34"/>
+      <c r="QV31" s="34"/>
+      <c r="QW31" s="34"/>
+      <c r="QX31" s="34"/>
+      <c r="QY31" s="34"/>
+      <c r="QZ31" s="34"/>
+      <c r="RA31" s="34"/>
+      <c r="RB31" s="34"/>
+      <c r="RC31" s="34"/>
+      <c r="RD31" s="34"/>
+      <c r="RE31" s="34"/>
+      <c r="RF31" s="34"/>
+      <c r="RG31" s="34"/>
+      <c r="RH31" s="34"/>
+      <c r="RI31" s="34"/>
+      <c r="RJ31" s="34"/>
+      <c r="RK31" s="34"/>
+      <c r="RL31" s="34"/>
+      <c r="RM31" s="34"/>
+      <c r="RN31" s="34"/>
+      <c r="RO31" s="34"/>
+      <c r="RP31" s="34"/>
+      <c r="RQ31" s="34"/>
+      <c r="RR31" s="34"/>
+      <c r="RS31" s="34"/>
+      <c r="RT31" s="34"/>
+      <c r="RU31" s="34"/>
+      <c r="RV31" s="34"/>
+      <c r="RW31" s="34"/>
+      <c r="RX31" s="34"/>
+      <c r="RY31" s="34"/>
+      <c r="RZ31" s="34"/>
+      <c r="SA31" s="34"/>
+      <c r="SB31" s="34"/>
+      <c r="SC31" s="34"/>
+      <c r="SD31" s="34"/>
+      <c r="SE31" s="34"/>
+      <c r="SF31" s="34"/>
+      <c r="SG31" s="34"/>
+      <c r="SH31" s="34"/>
+      <c r="SI31" s="34"/>
+      <c r="SJ31" s="34"/>
+      <c r="SK31" s="34"/>
+      <c r="SL31" s="34"/>
+      <c r="SM31" s="34"/>
+      <c r="SN31" s="34"/>
+      <c r="SO31" s="34"/>
+      <c r="SP31" s="34"/>
+      <c r="SQ31" s="34"/>
+      <c r="SR31" s="34"/>
+      <c r="SS31" s="34"/>
+      <c r="ST31" s="34"/>
+      <c r="SU31" s="34"/>
+      <c r="SV31" s="34"/>
+      <c r="SW31" s="34"/>
+      <c r="SX31" s="34"/>
+      <c r="SY31" s="34"/>
+      <c r="SZ31" s="34"/>
+      <c r="TA31" s="34"/>
+      <c r="TB31" s="34"/>
+      <c r="TC31" s="34"/>
+      <c r="TD31" s="34"/>
+      <c r="TE31" s="34"/>
+      <c r="TF31" s="34"/>
+      <c r="TG31" s="34"/>
+      <c r="TH31" s="34"/>
+      <c r="TI31" s="34"/>
+      <c r="TJ31" s="34"/>
+      <c r="TK31" s="34"/>
+      <c r="TL31" s="34"/>
+      <c r="TM31" s="34"/>
+      <c r="TN31" s="34"/>
+      <c r="TO31" s="34"/>
+      <c r="TP31" s="34"/>
+      <c r="TQ31" s="34"/>
+      <c r="TR31" s="34"/>
+      <c r="TS31" s="34"/>
+      <c r="TT31" s="34"/>
+      <c r="TU31" s="34"/>
+      <c r="TV31" s="34"/>
+      <c r="TW31" s="34"/>
+      <c r="TX31" s="34"/>
+      <c r="TY31" s="34"/>
+      <c r="TZ31" s="34"/>
+      <c r="UA31" s="34"/>
+      <c r="UB31" s="34"/>
+      <c r="UC31" s="34"/>
+      <c r="UD31" s="34"/>
+      <c r="UE31" s="34"/>
+      <c r="UF31" s="34"/>
+      <c r="UG31" s="34"/>
+      <c r="UH31" s="34"/>
+      <c r="UI31" s="34"/>
+      <c r="UJ31" s="34"/>
+      <c r="UK31" s="34"/>
+      <c r="UL31" s="34"/>
+      <c r="UM31" s="34"/>
+      <c r="UN31" s="34"/>
+      <c r="UO31" s="34"/>
+      <c r="UP31" s="34"/>
+      <c r="UQ31" s="34"/>
+      <c r="UR31" s="34"/>
+      <c r="US31" s="34"/>
+      <c r="UT31" s="34"/>
+      <c r="UU31" s="34"/>
+      <c r="UV31" s="34"/>
+      <c r="UW31" s="34"/>
+      <c r="UX31" s="34"/>
+      <c r="UY31" s="34"/>
+      <c r="UZ31" s="34"/>
+      <c r="VA31" s="34"/>
+      <c r="VB31" s="34"/>
+      <c r="VC31" s="34"/>
+      <c r="VD31" s="34"/>
+      <c r="VE31" s="34"/>
+      <c r="VF31" s="34"/>
+      <c r="VG31" s="34"/>
+      <c r="VH31" s="34"/>
+      <c r="VI31" s="34"/>
+      <c r="VJ31" s="34"/>
+      <c r="VK31" s="34"/>
+      <c r="VL31" s="34"/>
+      <c r="VM31" s="34"/>
+      <c r="VN31" s="34"/>
+      <c r="VO31" s="34"/>
+      <c r="VP31" s="34"/>
+      <c r="VQ31" s="34"/>
+      <c r="VR31" s="34"/>
+      <c r="VS31" s="34"/>
+      <c r="VT31" s="34"/>
+      <c r="VU31" s="34"/>
+      <c r="VV31" s="34"/>
+      <c r="VW31" s="34"/>
+      <c r="VX31" s="34"/>
+      <c r="VY31" s="34"/>
+      <c r="VZ31" s="34"/>
+      <c r="WA31" s="34"/>
+      <c r="WB31" s="34"/>
+      <c r="WC31" s="34"/>
+      <c r="WD31" s="34"/>
+      <c r="WE31" s="34"/>
+      <c r="WF31" s="34"/>
+      <c r="WG31" s="34"/>
+      <c r="WH31" s="34"/>
+      <c r="WI31" s="34"/>
+      <c r="WJ31" s="34"/>
+      <c r="WK31" s="34"/>
+      <c r="WL31" s="34"/>
+      <c r="WM31" s="34"/>
+      <c r="WN31" s="34"/>
+      <c r="WO31" s="34"/>
+      <c r="WP31" s="34"/>
+      <c r="WQ31" s="34"/>
+      <c r="WR31" s="34"/>
+      <c r="WS31" s="34"/>
+      <c r="WT31" s="34"/>
+      <c r="WU31" s="34"/>
+      <c r="WV31" s="34"/>
+      <c r="WW31" s="34"/>
+      <c r="WX31" s="34"/>
+      <c r="WY31" s="34"/>
+      <c r="WZ31" s="34"/>
+      <c r="XA31" s="34"/>
+      <c r="XB31" s="34"/>
+      <c r="XC31" s="34"/>
+      <c r="XD31" s="34"/>
+      <c r="XE31" s="34"/>
+      <c r="XF31" s="34"/>
+      <c r="XG31" s="34"/>
+      <c r="XH31" s="34"/>
+      <c r="XI31" s="34"/>
+      <c r="XJ31" s="34"/>
+      <c r="XK31" s="34"/>
+      <c r="XL31" s="34"/>
+      <c r="XM31" s="34"/>
+      <c r="XN31" s="34"/>
+      <c r="XO31" s="34"/>
+      <c r="XP31" s="34"/>
+      <c r="XQ31" s="34"/>
+      <c r="XR31" s="34"/>
+      <c r="XS31" s="34"/>
+      <c r="XT31" s="34"/>
+      <c r="XU31" s="34"/>
+      <c r="XV31" s="34"/>
+      <c r="XW31" s="34"/>
+      <c r="XX31" s="34"/>
+      <c r="XY31" s="34"/>
+      <c r="XZ31" s="34"/>
+      <c r="YA31" s="34"/>
+      <c r="YB31" s="34"/>
+      <c r="YC31" s="34"/>
+      <c r="YD31" s="34"/>
+      <c r="YE31" s="34"/>
+      <c r="YF31" s="34"/>
+      <c r="YG31" s="34"/>
+      <c r="YH31" s="34"/>
+      <c r="YI31" s="34"/>
+      <c r="YJ31" s="34"/>
+      <c r="YK31" s="34"/>
+      <c r="YL31" s="34"/>
+      <c r="YM31" s="34"/>
+      <c r="YN31" s="34"/>
+      <c r="YO31" s="34"/>
+      <c r="YP31" s="34"/>
+      <c r="YQ31" s="34"/>
+      <c r="YR31" s="34"/>
+      <c r="YS31" s="34"/>
+      <c r="YT31" s="34"/>
+      <c r="YU31" s="34"/>
+      <c r="YV31" s="34"/>
+      <c r="YW31" s="34"/>
+      <c r="YX31" s="34"/>
+      <c r="YY31" s="34"/>
+      <c r="YZ31" s="34"/>
+      <c r="ZA31" s="34"/>
+      <c r="ZB31" s="34"/>
+      <c r="ZC31" s="34"/>
+      <c r="ZD31" s="34"/>
+      <c r="ZE31" s="34"/>
+      <c r="ZF31" s="34"/>
+      <c r="ZG31" s="34"/>
+      <c r="ZH31" s="34"/>
+      <c r="ZI31" s="34"/>
+      <c r="ZJ31" s="34"/>
+      <c r="ZK31" s="34"/>
+      <c r="ZL31" s="34"/>
+      <c r="ZM31" s="34"/>
+      <c r="ZN31" s="34"/>
+      <c r="ZO31" s="34"/>
+      <c r="ZP31" s="34"/>
+      <c r="ZQ31" s="34"/>
+      <c r="ZR31" s="34"/>
+      <c r="ZS31" s="34"/>
+      <c r="ZT31" s="34"/>
+      <c r="ZU31" s="34"/>
+      <c r="ZV31" s="34"/>
+      <c r="ZW31" s="34"/>
+      <c r="ZX31" s="34"/>
+      <c r="ZY31" s="34"/>
+      <c r="ZZ31" s="34"/>
+      <c r="AAA31" s="34"/>
+      <c r="AAB31" s="34"/>
+      <c r="AAC31" s="34"/>
+      <c r="AAD31" s="34"/>
+      <c r="AAE31" s="34"/>
+      <c r="AAF31" s="34"/>
+      <c r="AAG31" s="34"/>
+      <c r="AAH31" s="34"/>
+      <c r="AAI31" s="34"/>
+      <c r="AAJ31" s="34"/>
+      <c r="AAK31" s="34"/>
+      <c r="AAL31" s="34"/>
+      <c r="AAM31" s="34"/>
+      <c r="AAN31" s="34"/>
+      <c r="AAO31" s="34"/>
+      <c r="AAP31" s="34"/>
+      <c r="AAQ31" s="34"/>
+      <c r="AAR31" s="34"/>
+      <c r="AAS31" s="34"/>
+      <c r="AAT31" s="34"/>
+      <c r="AAU31" s="34"/>
+      <c r="AAV31" s="34"/>
+      <c r="AAW31" s="34"/>
+      <c r="AAX31" s="34"/>
+      <c r="AAY31" s="34"/>
+      <c r="AAZ31" s="34"/>
+      <c r="ABA31" s="34"/>
+      <c r="ABB31" s="34"/>
+      <c r="ABC31" s="34"/>
+      <c r="ABD31" s="34"/>
+      <c r="ABE31" s="34"/>
+      <c r="ABF31" s="34"/>
+      <c r="ABG31" s="34"/>
+      <c r="ABH31" s="34"/>
+      <c r="ABI31" s="34"/>
+      <c r="ABJ31" s="34"/>
+      <c r="ABK31" s="34"/>
+      <c r="ABL31" s="34"/>
+      <c r="ABM31" s="34"/>
+      <c r="ABN31" s="34"/>
+      <c r="ABO31" s="34"/>
+      <c r="ABP31" s="34"/>
+      <c r="ABQ31" s="34"/>
+      <c r="ABR31" s="34"/>
+      <c r="ABS31" s="34"/>
+      <c r="ABT31" s="34"/>
+      <c r="ABU31" s="34"/>
+      <c r="ABV31" s="34"/>
+      <c r="ABW31" s="34"/>
+      <c r="ABX31" s="34"/>
+      <c r="ABY31" s="34"/>
+      <c r="ABZ31" s="34"/>
+      <c r="ACA31" s="34"/>
+      <c r="ACB31" s="34"/>
+      <c r="ACC31" s="34"/>
+      <c r="ACD31" s="34"/>
+      <c r="ACE31" s="34"/>
+      <c r="ACF31" s="34"/>
+      <c r="ACG31" s="34"/>
+      <c r="ACH31" s="34"/>
+      <c r="ACI31" s="34"/>
+      <c r="ACJ31" s="34"/>
+      <c r="ACK31" s="34"/>
+      <c r="ACL31" s="34"/>
+      <c r="ACM31" s="34"/>
+      <c r="ACN31" s="34"/>
+      <c r="ACO31" s="34"/>
+      <c r="ACP31" s="34"/>
+      <c r="ACQ31" s="34"/>
+      <c r="ACR31" s="34"/>
+      <c r="ACS31" s="34"/>
+      <c r="ACT31" s="34"/>
+      <c r="ACU31" s="34"/>
+      <c r="ACV31" s="34"/>
+      <c r="ACW31" s="34"/>
+      <c r="ACX31" s="34"/>
+      <c r="ACY31" s="34"/>
+      <c r="ACZ31" s="34"/>
+      <c r="ADA31" s="34"/>
+      <c r="ADB31" s="34"/>
+      <c r="ADC31" s="34"/>
+      <c r="ADD31" s="34"/>
+      <c r="ADE31" s="34"/>
+      <c r="ADF31" s="34"/>
+      <c r="ADG31" s="34"/>
+      <c r="ADH31" s="34"/>
+      <c r="ADI31" s="34"/>
+      <c r="ADJ31" s="34"/>
+      <c r="ADK31" s="34"/>
+      <c r="ADL31" s="34"/>
+      <c r="ADM31" s="34"/>
+      <c r="ADN31" s="34"/>
+      <c r="ADO31" s="34"/>
+      <c r="ADP31" s="34"/>
+      <c r="ADQ31" s="34"/>
+      <c r="ADR31" s="34"/>
+      <c r="ADS31" s="34"/>
+      <c r="ADT31" s="34"/>
+      <c r="ADU31" s="34"/>
+      <c r="ADV31" s="34"/>
+      <c r="ADW31" s="34"/>
+      <c r="ADX31" s="34"/>
+      <c r="ADY31" s="34"/>
+      <c r="ADZ31" s="34"/>
+      <c r="AEA31" s="34"/>
+      <c r="AEB31" s="34"/>
+      <c r="AEC31" s="34"/>
+      <c r="AED31" s="34"/>
+      <c r="AEE31" s="34"/>
+      <c r="AEF31" s="34"/>
+      <c r="AEG31" s="34"/>
+      <c r="AEH31" s="34"/>
+      <c r="AEI31" s="34"/>
+      <c r="AEJ31" s="34"/>
+      <c r="AEK31" s="34"/>
+      <c r="AEL31" s="34"/>
+      <c r="AEM31" s="34"/>
+      <c r="AEN31" s="34"/>
+      <c r="AEO31" s="34"/>
+      <c r="AEP31" s="34"/>
+      <c r="AEQ31" s="34"/>
+      <c r="AER31" s="34"/>
+      <c r="AES31" s="34"/>
+      <c r="AET31" s="34"/>
+      <c r="AEU31" s="34"/>
+      <c r="AEV31" s="34"/>
+      <c r="AEW31" s="34"/>
+      <c r="AEX31" s="34"/>
+      <c r="AEY31" s="34"/>
+      <c r="AEZ31" s="34"/>
+      <c r="AFA31" s="34"/>
+      <c r="AFB31" s="34"/>
+      <c r="AFC31" s="34"/>
+      <c r="AFD31" s="34"/>
+      <c r="AFE31" s="34"/>
+      <c r="AFF31" s="34"/>
+      <c r="AFG31" s="34"/>
+      <c r="AFH31" s="34"/>
+      <c r="AFI31" s="34"/>
+      <c r="AFJ31" s="34"/>
+      <c r="AFK31" s="34"/>
+      <c r="AFL31" s="34"/>
+      <c r="AFM31" s="34"/>
+      <c r="AFN31" s="34"/>
+      <c r="AFO31" s="34"/>
+      <c r="AFP31" s="34"/>
+      <c r="AFQ31" s="34"/>
+      <c r="AFR31" s="34"/>
+      <c r="AFS31" s="34"/>
+      <c r="AFT31" s="34"/>
+      <c r="AFU31" s="34"/>
+      <c r="AFV31" s="34"/>
+      <c r="AFW31" s="34"/>
+      <c r="AFX31" s="34"/>
+      <c r="AFY31" s="34"/>
+      <c r="AFZ31" s="34"/>
+      <c r="AGA31" s="34"/>
+      <c r="AGB31" s="34"/>
+      <c r="AGC31" s="34"/>
+      <c r="AGD31" s="34"/>
+      <c r="AGE31" s="34"/>
+      <c r="AGF31" s="34"/>
+      <c r="AGG31" s="34"/>
+      <c r="AGH31" s="34"/>
+      <c r="AGI31" s="34"/>
+      <c r="AGJ31" s="34"/>
+      <c r="AGK31" s="34"/>
+      <c r="AGL31" s="34"/>
+      <c r="AGM31" s="34"/>
+      <c r="AGN31" s="34"/>
+      <c r="AGO31" s="34"/>
+      <c r="AGP31" s="34"/>
+      <c r="AGQ31" s="34"/>
+      <c r="AGR31" s="34"/>
+      <c r="AGS31" s="34"/>
+      <c r="AGT31" s="34"/>
+      <c r="AGU31" s="34"/>
+      <c r="AGV31" s="34"/>
+      <c r="AGW31" s="34"/>
+      <c r="AGX31" s="34"/>
+      <c r="AGY31" s="34"/>
+      <c r="AGZ31" s="34"/>
+      <c r="AHA31" s="34"/>
+      <c r="AHB31" s="34"/>
+      <c r="AHC31" s="34"/>
+      <c r="AHD31" s="34"/>
+      <c r="AHE31" s="34"/>
+      <c r="AHF31" s="34"/>
+      <c r="AHG31" s="34"/>
+      <c r="AHH31" s="34"/>
+      <c r="AHI31" s="34"/>
+      <c r="AHJ31" s="34"/>
+      <c r="AHK31" s="34"/>
+      <c r="AHL31" s="34"/>
+      <c r="AHM31" s="34"/>
+      <c r="AHN31" s="34"/>
+      <c r="AHO31" s="34"/>
+      <c r="AHP31" s="34"/>
+      <c r="AHQ31" s="34"/>
+      <c r="AHR31" s="34"/>
+      <c r="AHS31" s="34"/>
+      <c r="AHT31" s="34"/>
+      <c r="AHU31" s="34"/>
+      <c r="AHV31" s="34"/>
+      <c r="AHW31" s="34"/>
+      <c r="AHX31" s="34"/>
+      <c r="AHY31" s="34"/>
+      <c r="AHZ31" s="34"/>
+      <c r="AIA31" s="34"/>
+      <c r="AIB31" s="34"/>
+      <c r="AIC31" s="34"/>
+      <c r="AID31" s="34"/>
+      <c r="AIE31" s="34"/>
+      <c r="AIF31" s="34"/>
+      <c r="AIG31" s="34"/>
+      <c r="AIH31" s="34"/>
+      <c r="AII31" s="34"/>
+      <c r="AIJ31" s="34"/>
+      <c r="AIK31" s="34"/>
+      <c r="AIL31" s="34"/>
+      <c r="AIM31" s="34"/>
+      <c r="AIN31" s="34"/>
+      <c r="AIO31" s="34"/>
+      <c r="AIP31" s="34"/>
+      <c r="AIQ31" s="34"/>
+      <c r="AIR31" s="34"/>
+      <c r="AIS31" s="34"/>
+      <c r="AIT31" s="34"/>
+      <c r="AIU31" s="34"/>
+      <c r="AIV31" s="34"/>
+      <c r="AIW31" s="34"/>
+      <c r="AIX31" s="34"/>
+      <c r="AIY31" s="34"/>
+      <c r="AIZ31" s="34"/>
+      <c r="AJA31" s="34"/>
+      <c r="AJB31" s="34"/>
+      <c r="AJC31" s="34"/>
+      <c r="AJD31" s="34"/>
+      <c r="AJE31" s="34"/>
+      <c r="AJF31" s="34"/>
+      <c r="AJG31" s="34"/>
+      <c r="AJH31" s="34"/>
+      <c r="AJI31" s="34"/>
+      <c r="AJJ31" s="34"/>
+      <c r="AJK31" s="34"/>
+      <c r="AJL31" s="34"/>
+      <c r="AJM31" s="34"/>
+      <c r="AJN31" s="34"/>
+      <c r="AJO31" s="34"/>
+      <c r="AJP31" s="34"/>
+      <c r="AJQ31" s="34"/>
+      <c r="AJR31" s="34"/>
+      <c r="AJS31" s="34"/>
+      <c r="AJT31" s="34"/>
+      <c r="AJU31" s="34"/>
+      <c r="AJV31" s="34"/>
+      <c r="AJW31" s="34"/>
+      <c r="AJX31" s="34"/>
+      <c r="AJY31" s="34"/>
+      <c r="AJZ31" s="34"/>
+      <c r="AKA31" s="34"/>
+      <c r="AKB31" s="34"/>
+      <c r="AKC31" s="34"/>
+      <c r="AKD31" s="34"/>
+      <c r="AKE31" s="34"/>
+      <c r="AKF31" s="34"/>
+      <c r="AKG31" s="34"/>
+      <c r="AKH31" s="34"/>
+      <c r="AKI31" s="34"/>
+      <c r="AKJ31" s="34"/>
+      <c r="AKK31" s="34"/>
+      <c r="AKL31" s="34"/>
+      <c r="AKM31" s="34"/>
+      <c r="AKN31" s="34"/>
+      <c r="AKO31" s="34"/>
+      <c r="AKP31" s="34"/>
+      <c r="AKQ31" s="34"/>
+      <c r="AKR31" s="34"/>
+      <c r="AKS31" s="34"/>
+      <c r="AKT31" s="34"/>
+      <c r="AKU31" s="34"/>
+      <c r="AKV31" s="34"/>
+      <c r="AKW31" s="34"/>
+      <c r="AKX31" s="34"/>
+      <c r="AKY31" s="34"/>
+      <c r="AKZ31" s="34"/>
+      <c r="ALA31" s="34"/>
+      <c r="ALB31" s="34"/>
+      <c r="ALC31" s="34"/>
+      <c r="ALD31" s="34"/>
+      <c r="ALE31" s="34"/>
+      <c r="ALF31" s="34"/>
+      <c r="ALG31" s="34"/>
+      <c r="ALH31" s="34"/>
+      <c r="ALI31" s="34"/>
+      <c r="ALJ31" s="34"/>
+      <c r="ALK31" s="34"/>
+      <c r="ALL31" s="34"/>
+      <c r="ALM31" s="34"/>
+      <c r="ALN31" s="34"/>
+      <c r="ALO31" s="34"/>
+      <c r="ALP31" s="34"/>
+      <c r="ALQ31" s="34"/>
+      <c r="ALR31" s="34"/>
+      <c r="ALS31" s="34"/>
+      <c r="ALT31" s="34"/>
+      <c r="ALU31" s="34"/>
+      <c r="ALV31" s="34"/>
+      <c r="ALW31" s="34"/>
+      <c r="ALX31" s="34"/>
+      <c r="ALY31" s="34"/>
+      <c r="ALZ31" s="34"/>
+      <c r="AMA31" s="34"/>
+      <c r="AMB31" s="34"/>
+      <c r="AMC31" s="34"/>
+      <c r="AMD31" s="34"/>
+      <c r="AME31" s="34"/>
+      <c r="AMF31" s="34"/>
+      <c r="AMG31" s="34"/>
+      <c r="AMH31" s="34"/>
+      <c r="AMI31" s="34"/>
+      <c r="AMJ31" s="34"/>
+      <c r="AMK31" s="34"/>
+    </row>
+    <row r="32" spans="1:1025" ht="15.75">
+      <c r="A32" s="34"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="47"/>
-    </row>
-    <row r="31" spans="2:8" ht="15.6">
-      <c r="B31" s="47"/>
-      <c r="C31" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="47"/>
-    </row>
-    <row r="32" spans="2:8" ht="15.6">
-      <c r="B32" s="47"/>
-      <c r="C32" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" spans="2:8" ht="15.6">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="2:8" ht="13.2"/>
-    <row r="35" spans="2:8" ht="13.2"/>
-    <row r="36" spans="2:8" ht="13.2"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AS32" s="34"/>
+      <c r="AT32" s="34"/>
+      <c r="AU32" s="34"/>
+      <c r="AV32" s="34"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="34"/>
+      <c r="AY32" s="34"/>
+      <c r="AZ32" s="34"/>
+      <c r="BA32" s="34"/>
+      <c r="BB32" s="34"/>
+      <c r="BC32" s="34"/>
+      <c r="BD32" s="34"/>
+      <c r="BE32" s="34"/>
+      <c r="BF32" s="34"/>
+      <c r="BG32" s="34"/>
+      <c r="BH32" s="34"/>
+      <c r="BI32" s="34"/>
+      <c r="BJ32" s="34"/>
+      <c r="BK32" s="34"/>
+      <c r="BL32" s="34"/>
+      <c r="BM32" s="34"/>
+      <c r="BN32" s="34"/>
+      <c r="BO32" s="34"/>
+      <c r="BP32" s="34"/>
+      <c r="BQ32" s="34"/>
+      <c r="BR32" s="34"/>
+      <c r="BS32" s="34"/>
+      <c r="BT32" s="34"/>
+      <c r="BU32" s="34"/>
+      <c r="BV32" s="34"/>
+      <c r="BW32" s="34"/>
+      <c r="BX32" s="34"/>
+      <c r="BY32" s="34"/>
+      <c r="BZ32" s="34"/>
+      <c r="CA32" s="34"/>
+      <c r="CB32" s="34"/>
+      <c r="CC32" s="34"/>
+      <c r="CD32" s="34"/>
+      <c r="CE32" s="34"/>
+      <c r="CF32" s="34"/>
+      <c r="CG32" s="34"/>
+      <c r="CH32" s="34"/>
+      <c r="CI32" s="34"/>
+      <c r="CJ32" s="34"/>
+      <c r="CK32" s="34"/>
+      <c r="CL32" s="34"/>
+      <c r="CM32" s="34"/>
+      <c r="CN32" s="34"/>
+      <c r="CO32" s="34"/>
+      <c r="CP32" s="34"/>
+      <c r="CQ32" s="34"/>
+      <c r="CR32" s="34"/>
+      <c r="CS32" s="34"/>
+      <c r="CT32" s="34"/>
+      <c r="CU32" s="34"/>
+      <c r="CV32" s="34"/>
+      <c r="CW32" s="34"/>
+      <c r="CX32" s="34"/>
+      <c r="CY32" s="34"/>
+      <c r="CZ32" s="34"/>
+      <c r="DA32" s="34"/>
+      <c r="DB32" s="34"/>
+      <c r="DC32" s="34"/>
+      <c r="DD32" s="34"/>
+      <c r="DE32" s="34"/>
+      <c r="DF32" s="34"/>
+      <c r="DG32" s="34"/>
+      <c r="DH32" s="34"/>
+      <c r="DI32" s="34"/>
+      <c r="DJ32" s="34"/>
+      <c r="DK32" s="34"/>
+      <c r="DL32" s="34"/>
+      <c r="DM32" s="34"/>
+      <c r="DN32" s="34"/>
+      <c r="DO32" s="34"/>
+      <c r="DP32" s="34"/>
+      <c r="DQ32" s="34"/>
+      <c r="DR32" s="34"/>
+      <c r="DS32" s="34"/>
+      <c r="DT32" s="34"/>
+      <c r="DU32" s="34"/>
+      <c r="DV32" s="34"/>
+      <c r="DW32" s="34"/>
+      <c r="DX32" s="34"/>
+      <c r="DY32" s="34"/>
+      <c r="DZ32" s="34"/>
+      <c r="EA32" s="34"/>
+      <c r="EB32" s="34"/>
+      <c r="EC32" s="34"/>
+      <c r="ED32" s="34"/>
+      <c r="EE32" s="34"/>
+      <c r="EF32" s="34"/>
+      <c r="EG32" s="34"/>
+      <c r="EH32" s="34"/>
+      <c r="EI32" s="34"/>
+      <c r="EJ32" s="34"/>
+      <c r="EK32" s="34"/>
+      <c r="EL32" s="34"/>
+      <c r="EM32" s="34"/>
+      <c r="EN32" s="34"/>
+      <c r="EO32" s="34"/>
+      <c r="EP32" s="34"/>
+      <c r="EQ32" s="34"/>
+      <c r="ER32" s="34"/>
+      <c r="ES32" s="34"/>
+      <c r="ET32" s="34"/>
+      <c r="EU32" s="34"/>
+      <c r="EV32" s="34"/>
+      <c r="EW32" s="34"/>
+      <c r="EX32" s="34"/>
+      <c r="EY32" s="34"/>
+      <c r="EZ32" s="34"/>
+      <c r="FA32" s="34"/>
+      <c r="FB32" s="34"/>
+      <c r="FC32" s="34"/>
+      <c r="FD32" s="34"/>
+      <c r="FE32" s="34"/>
+      <c r="FF32" s="34"/>
+      <c r="FG32" s="34"/>
+      <c r="FH32" s="34"/>
+      <c r="FI32" s="34"/>
+      <c r="FJ32" s="34"/>
+      <c r="FK32" s="34"/>
+      <c r="FL32" s="34"/>
+      <c r="FM32" s="34"/>
+      <c r="FN32" s="34"/>
+      <c r="FO32" s="34"/>
+      <c r="FP32" s="34"/>
+      <c r="FQ32" s="34"/>
+      <c r="FR32" s="34"/>
+      <c r="FS32" s="34"/>
+      <c r="FT32" s="34"/>
+      <c r="FU32" s="34"/>
+      <c r="FV32" s="34"/>
+      <c r="FW32" s="34"/>
+      <c r="FX32" s="34"/>
+      <c r="FY32" s="34"/>
+      <c r="FZ32" s="34"/>
+      <c r="GA32" s="34"/>
+      <c r="GB32" s="34"/>
+      <c r="GC32" s="34"/>
+      <c r="GD32" s="34"/>
+      <c r="GE32" s="34"/>
+      <c r="GF32" s="34"/>
+      <c r="GG32" s="34"/>
+      <c r="GH32" s="34"/>
+      <c r="GI32" s="34"/>
+      <c r="GJ32" s="34"/>
+      <c r="GK32" s="34"/>
+      <c r="GL32" s="34"/>
+      <c r="GM32" s="34"/>
+      <c r="GN32" s="34"/>
+      <c r="GO32" s="34"/>
+      <c r="GP32" s="34"/>
+      <c r="GQ32" s="34"/>
+      <c r="GR32" s="34"/>
+      <c r="GS32" s="34"/>
+      <c r="GT32" s="34"/>
+      <c r="GU32" s="34"/>
+      <c r="GV32" s="34"/>
+      <c r="GW32" s="34"/>
+      <c r="GX32" s="34"/>
+      <c r="GY32" s="34"/>
+      <c r="GZ32" s="34"/>
+      <c r="HA32" s="34"/>
+      <c r="HB32" s="34"/>
+      <c r="HC32" s="34"/>
+      <c r="HD32" s="34"/>
+      <c r="HE32" s="34"/>
+      <c r="HF32" s="34"/>
+      <c r="HG32" s="34"/>
+      <c r="HH32" s="34"/>
+      <c r="HI32" s="34"/>
+      <c r="HJ32" s="34"/>
+      <c r="HK32" s="34"/>
+      <c r="HL32" s="34"/>
+      <c r="HM32" s="34"/>
+      <c r="HN32" s="34"/>
+      <c r="HO32" s="34"/>
+      <c r="HP32" s="34"/>
+      <c r="HQ32" s="34"/>
+      <c r="HR32" s="34"/>
+      <c r="HS32" s="34"/>
+      <c r="HT32" s="34"/>
+      <c r="HU32" s="34"/>
+      <c r="HV32" s="34"/>
+      <c r="HW32" s="34"/>
+      <c r="HX32" s="34"/>
+      <c r="HY32" s="34"/>
+      <c r="HZ32" s="34"/>
+      <c r="IA32" s="34"/>
+      <c r="IB32" s="34"/>
+      <c r="IC32" s="34"/>
+      <c r="ID32" s="34"/>
+      <c r="IE32" s="34"/>
+      <c r="IF32" s="34"/>
+      <c r="IG32" s="34"/>
+      <c r="IH32" s="34"/>
+      <c r="II32" s="34"/>
+      <c r="IJ32" s="34"/>
+      <c r="IK32" s="34"/>
+      <c r="IL32" s="34"/>
+      <c r="IM32" s="34"/>
+      <c r="IN32" s="34"/>
+      <c r="IO32" s="34"/>
+      <c r="IP32" s="34"/>
+      <c r="IQ32" s="34"/>
+      <c r="IR32" s="34"/>
+      <c r="IS32" s="34"/>
+      <c r="IT32" s="34"/>
+      <c r="IU32" s="34"/>
+      <c r="IV32" s="34"/>
+      <c r="IW32" s="34"/>
+      <c r="IX32" s="34"/>
+      <c r="IY32" s="34"/>
+      <c r="IZ32" s="34"/>
+      <c r="JA32" s="34"/>
+      <c r="JB32" s="34"/>
+      <c r="JC32" s="34"/>
+      <c r="JD32" s="34"/>
+      <c r="JE32" s="34"/>
+      <c r="JF32" s="34"/>
+      <c r="JG32" s="34"/>
+      <c r="JH32" s="34"/>
+      <c r="JI32" s="34"/>
+      <c r="JJ32" s="34"/>
+      <c r="JK32" s="34"/>
+      <c r="JL32" s="34"/>
+      <c r="JM32" s="34"/>
+      <c r="JN32" s="34"/>
+      <c r="JO32" s="34"/>
+      <c r="JP32" s="34"/>
+      <c r="JQ32" s="34"/>
+      <c r="JR32" s="34"/>
+      <c r="JS32" s="34"/>
+      <c r="JT32" s="34"/>
+      <c r="JU32" s="34"/>
+      <c r="JV32" s="34"/>
+      <c r="JW32" s="34"/>
+      <c r="JX32" s="34"/>
+      <c r="JY32" s="34"/>
+      <c r="JZ32" s="34"/>
+      <c r="KA32" s="34"/>
+      <c r="KB32" s="34"/>
+      <c r="KC32" s="34"/>
+      <c r="KD32" s="34"/>
+      <c r="KE32" s="34"/>
+      <c r="KF32" s="34"/>
+      <c r="KG32" s="34"/>
+      <c r="KH32" s="34"/>
+      <c r="KI32" s="34"/>
+      <c r="KJ32" s="34"/>
+      <c r="KK32" s="34"/>
+      <c r="KL32" s="34"/>
+      <c r="KM32" s="34"/>
+      <c r="KN32" s="34"/>
+      <c r="KO32" s="34"/>
+      <c r="KP32" s="34"/>
+      <c r="KQ32" s="34"/>
+      <c r="KR32" s="34"/>
+      <c r="KS32" s="34"/>
+      <c r="KT32" s="34"/>
+      <c r="KU32" s="34"/>
+      <c r="KV32" s="34"/>
+      <c r="KW32" s="34"/>
+      <c r="KX32" s="34"/>
+      <c r="KY32" s="34"/>
+      <c r="KZ32" s="34"/>
+      <c r="LA32" s="34"/>
+      <c r="LB32" s="34"/>
+      <c r="LC32" s="34"/>
+      <c r="LD32" s="34"/>
+      <c r="LE32" s="34"/>
+      <c r="LF32" s="34"/>
+      <c r="LG32" s="34"/>
+      <c r="LH32" s="34"/>
+      <c r="LI32" s="34"/>
+      <c r="LJ32" s="34"/>
+      <c r="LK32" s="34"/>
+      <c r="LL32" s="34"/>
+      <c r="LM32" s="34"/>
+      <c r="LN32" s="34"/>
+      <c r="LO32" s="34"/>
+      <c r="LP32" s="34"/>
+      <c r="LQ32" s="34"/>
+      <c r="LR32" s="34"/>
+      <c r="LS32" s="34"/>
+      <c r="LT32" s="34"/>
+      <c r="LU32" s="34"/>
+      <c r="LV32" s="34"/>
+      <c r="LW32" s="34"/>
+      <c r="LX32" s="34"/>
+      <c r="LY32" s="34"/>
+      <c r="LZ32" s="34"/>
+      <c r="MA32" s="34"/>
+      <c r="MB32" s="34"/>
+      <c r="MC32" s="34"/>
+      <c r="MD32" s="34"/>
+      <c r="ME32" s="34"/>
+      <c r="MF32" s="34"/>
+      <c r="MG32" s="34"/>
+      <c r="MH32" s="34"/>
+      <c r="MI32" s="34"/>
+      <c r="MJ32" s="34"/>
+      <c r="MK32" s="34"/>
+      <c r="ML32" s="34"/>
+      <c r="MM32" s="34"/>
+      <c r="MN32" s="34"/>
+      <c r="MO32" s="34"/>
+      <c r="MP32" s="34"/>
+      <c r="MQ32" s="34"/>
+      <c r="MR32" s="34"/>
+      <c r="MS32" s="34"/>
+      <c r="MT32" s="34"/>
+      <c r="MU32" s="34"/>
+      <c r="MV32" s="34"/>
+      <c r="MW32" s="34"/>
+      <c r="MX32" s="34"/>
+      <c r="MY32" s="34"/>
+      <c r="MZ32" s="34"/>
+      <c r="NA32" s="34"/>
+      <c r="NB32" s="34"/>
+      <c r="NC32" s="34"/>
+      <c r="ND32" s="34"/>
+      <c r="NE32" s="34"/>
+      <c r="NF32" s="34"/>
+      <c r="NG32" s="34"/>
+      <c r="NH32" s="34"/>
+      <c r="NI32" s="34"/>
+      <c r="NJ32" s="34"/>
+      <c r="NK32" s="34"/>
+      <c r="NL32" s="34"/>
+      <c r="NM32" s="34"/>
+      <c r="NN32" s="34"/>
+      <c r="NO32" s="34"/>
+      <c r="NP32" s="34"/>
+      <c r="NQ32" s="34"/>
+      <c r="NR32" s="34"/>
+      <c r="NS32" s="34"/>
+      <c r="NT32" s="34"/>
+      <c r="NU32" s="34"/>
+      <c r="NV32" s="34"/>
+      <c r="NW32" s="34"/>
+      <c r="NX32" s="34"/>
+      <c r="NY32" s="34"/>
+      <c r="NZ32" s="34"/>
+      <c r="OA32" s="34"/>
+      <c r="OB32" s="34"/>
+      <c r="OC32" s="34"/>
+      <c r="OD32" s="34"/>
+      <c r="OE32" s="34"/>
+      <c r="OF32" s="34"/>
+      <c r="OG32" s="34"/>
+      <c r="OH32" s="34"/>
+      <c r="OI32" s="34"/>
+      <c r="OJ32" s="34"/>
+      <c r="OK32" s="34"/>
+      <c r="OL32" s="34"/>
+      <c r="OM32" s="34"/>
+      <c r="ON32" s="34"/>
+      <c r="OO32" s="34"/>
+      <c r="OP32" s="34"/>
+      <c r="OQ32" s="34"/>
+      <c r="OR32" s="34"/>
+      <c r="OS32" s="34"/>
+      <c r="OT32" s="34"/>
+      <c r="OU32" s="34"/>
+      <c r="OV32" s="34"/>
+      <c r="OW32" s="34"/>
+      <c r="OX32" s="34"/>
+      <c r="OY32" s="34"/>
+      <c r="OZ32" s="34"/>
+      <c r="PA32" s="34"/>
+      <c r="PB32" s="34"/>
+      <c r="PC32" s="34"/>
+      <c r="PD32" s="34"/>
+      <c r="PE32" s="34"/>
+      <c r="PF32" s="34"/>
+      <c r="PG32" s="34"/>
+      <c r="PH32" s="34"/>
+      <c r="PI32" s="34"/>
+      <c r="PJ32" s="34"/>
+      <c r="PK32" s="34"/>
+      <c r="PL32" s="34"/>
+      <c r="PM32" s="34"/>
+      <c r="PN32" s="34"/>
+      <c r="PO32" s="34"/>
+      <c r="PP32" s="34"/>
+      <c r="PQ32" s="34"/>
+      <c r="PR32" s="34"/>
+      <c r="PS32" s="34"/>
+      <c r="PT32" s="34"/>
+      <c r="PU32" s="34"/>
+      <c r="PV32" s="34"/>
+      <c r="PW32" s="34"/>
+      <c r="PX32" s="34"/>
+      <c r="PY32" s="34"/>
+      <c r="PZ32" s="34"/>
+      <c r="QA32" s="34"/>
+      <c r="QB32" s="34"/>
+      <c r="QC32" s="34"/>
+      <c r="QD32" s="34"/>
+      <c r="QE32" s="34"/>
+      <c r="QF32" s="34"/>
+      <c r="QG32" s="34"/>
+      <c r="QH32" s="34"/>
+      <c r="QI32" s="34"/>
+      <c r="QJ32" s="34"/>
+      <c r="QK32" s="34"/>
+      <c r="QL32" s="34"/>
+      <c r="QM32" s="34"/>
+      <c r="QN32" s="34"/>
+      <c r="QO32" s="34"/>
+      <c r="QP32" s="34"/>
+      <c r="QQ32" s="34"/>
+      <c r="QR32" s="34"/>
+      <c r="QS32" s="34"/>
+      <c r="QT32" s="34"/>
+      <c r="QU32" s="34"/>
+      <c r="QV32" s="34"/>
+      <c r="QW32" s="34"/>
+      <c r="QX32" s="34"/>
+      <c r="QY32" s="34"/>
+      <c r="QZ32" s="34"/>
+      <c r="RA32" s="34"/>
+      <c r="RB32" s="34"/>
+      <c r="RC32" s="34"/>
+      <c r="RD32" s="34"/>
+      <c r="RE32" s="34"/>
+      <c r="RF32" s="34"/>
+      <c r="RG32" s="34"/>
+      <c r="RH32" s="34"/>
+      <c r="RI32" s="34"/>
+      <c r="RJ32" s="34"/>
+      <c r="RK32" s="34"/>
+      <c r="RL32" s="34"/>
+      <c r="RM32" s="34"/>
+      <c r="RN32" s="34"/>
+      <c r="RO32" s="34"/>
+      <c r="RP32" s="34"/>
+      <c r="RQ32" s="34"/>
+      <c r="RR32" s="34"/>
+      <c r="RS32" s="34"/>
+      <c r="RT32" s="34"/>
+      <c r="RU32" s="34"/>
+      <c r="RV32" s="34"/>
+      <c r="RW32" s="34"/>
+      <c r="RX32" s="34"/>
+      <c r="RY32" s="34"/>
+      <c r="RZ32" s="34"/>
+      <c r="SA32" s="34"/>
+      <c r="SB32" s="34"/>
+      <c r="SC32" s="34"/>
+      <c r="SD32" s="34"/>
+      <c r="SE32" s="34"/>
+      <c r="SF32" s="34"/>
+      <c r="SG32" s="34"/>
+      <c r="SH32" s="34"/>
+      <c r="SI32" s="34"/>
+      <c r="SJ32" s="34"/>
+      <c r="SK32" s="34"/>
+      <c r="SL32" s="34"/>
+      <c r="SM32" s="34"/>
+      <c r="SN32" s="34"/>
+      <c r="SO32" s="34"/>
+      <c r="SP32" s="34"/>
+      <c r="SQ32" s="34"/>
+      <c r="SR32" s="34"/>
+      <c r="SS32" s="34"/>
+      <c r="ST32" s="34"/>
+      <c r="SU32" s="34"/>
+      <c r="SV32" s="34"/>
+      <c r="SW32" s="34"/>
+      <c r="SX32" s="34"/>
+      <c r="SY32" s="34"/>
+      <c r="SZ32" s="34"/>
+      <c r="TA32" s="34"/>
+      <c r="TB32" s="34"/>
+      <c r="TC32" s="34"/>
+      <c r="TD32" s="34"/>
+      <c r="TE32" s="34"/>
+      <c r="TF32" s="34"/>
+      <c r="TG32" s="34"/>
+      <c r="TH32" s="34"/>
+      <c r="TI32" s="34"/>
+      <c r="TJ32" s="34"/>
+      <c r="TK32" s="34"/>
+      <c r="TL32" s="34"/>
+      <c r="TM32" s="34"/>
+      <c r="TN32" s="34"/>
+      <c r="TO32" s="34"/>
+      <c r="TP32" s="34"/>
+      <c r="TQ32" s="34"/>
+      <c r="TR32" s="34"/>
+      <c r="TS32" s="34"/>
+      <c r="TT32" s="34"/>
+      <c r="TU32" s="34"/>
+      <c r="TV32" s="34"/>
+      <c r="TW32" s="34"/>
+      <c r="TX32" s="34"/>
+      <c r="TY32" s="34"/>
+      <c r="TZ32" s="34"/>
+      <c r="UA32" s="34"/>
+      <c r="UB32" s="34"/>
+      <c r="UC32" s="34"/>
+      <c r="UD32" s="34"/>
+      <c r="UE32" s="34"/>
+      <c r="UF32" s="34"/>
+      <c r="UG32" s="34"/>
+      <c r="UH32" s="34"/>
+      <c r="UI32" s="34"/>
+      <c r="UJ32" s="34"/>
+      <c r="UK32" s="34"/>
+      <c r="UL32" s="34"/>
+      <c r="UM32" s="34"/>
+      <c r="UN32" s="34"/>
+      <c r="UO32" s="34"/>
+      <c r="UP32" s="34"/>
+      <c r="UQ32" s="34"/>
+      <c r="UR32" s="34"/>
+      <c r="US32" s="34"/>
+      <c r="UT32" s="34"/>
+      <c r="UU32" s="34"/>
+      <c r="UV32" s="34"/>
+      <c r="UW32" s="34"/>
+      <c r="UX32" s="34"/>
+      <c r="UY32" s="34"/>
+      <c r="UZ32" s="34"/>
+      <c r="VA32" s="34"/>
+      <c r="VB32" s="34"/>
+      <c r="VC32" s="34"/>
+      <c r="VD32" s="34"/>
+      <c r="VE32" s="34"/>
+      <c r="VF32" s="34"/>
+      <c r="VG32" s="34"/>
+      <c r="VH32" s="34"/>
+      <c r="VI32" s="34"/>
+      <c r="VJ32" s="34"/>
+      <c r="VK32" s="34"/>
+      <c r="VL32" s="34"/>
+      <c r="VM32" s="34"/>
+      <c r="VN32" s="34"/>
+      <c r="VO32" s="34"/>
+      <c r="VP32" s="34"/>
+      <c r="VQ32" s="34"/>
+      <c r="VR32" s="34"/>
+      <c r="VS32" s="34"/>
+      <c r="VT32" s="34"/>
+      <c r="VU32" s="34"/>
+      <c r="VV32" s="34"/>
+      <c r="VW32" s="34"/>
+      <c r="VX32" s="34"/>
+      <c r="VY32" s="34"/>
+      <c r="VZ32" s="34"/>
+      <c r="WA32" s="34"/>
+      <c r="WB32" s="34"/>
+      <c r="WC32" s="34"/>
+      <c r="WD32" s="34"/>
+      <c r="WE32" s="34"/>
+      <c r="WF32" s="34"/>
+      <c r="WG32" s="34"/>
+      <c r="WH32" s="34"/>
+      <c r="WI32" s="34"/>
+      <c r="WJ32" s="34"/>
+      <c r="WK32" s="34"/>
+      <c r="WL32" s="34"/>
+      <c r="WM32" s="34"/>
+      <c r="WN32" s="34"/>
+      <c r="WO32" s="34"/>
+      <c r="WP32" s="34"/>
+      <c r="WQ32" s="34"/>
+      <c r="WR32" s="34"/>
+      <c r="WS32" s="34"/>
+      <c r="WT32" s="34"/>
+      <c r="WU32" s="34"/>
+      <c r="WV32" s="34"/>
+      <c r="WW32" s="34"/>
+      <c r="WX32" s="34"/>
+      <c r="WY32" s="34"/>
+      <c r="WZ32" s="34"/>
+      <c r="XA32" s="34"/>
+      <c r="XB32" s="34"/>
+      <c r="XC32" s="34"/>
+      <c r="XD32" s="34"/>
+      <c r="XE32" s="34"/>
+      <c r="XF32" s="34"/>
+      <c r="XG32" s="34"/>
+      <c r="XH32" s="34"/>
+      <c r="XI32" s="34"/>
+      <c r="XJ32" s="34"/>
+      <c r="XK32" s="34"/>
+      <c r="XL32" s="34"/>
+      <c r="XM32" s="34"/>
+      <c r="XN32" s="34"/>
+      <c r="XO32" s="34"/>
+      <c r="XP32" s="34"/>
+      <c r="XQ32" s="34"/>
+      <c r="XR32" s="34"/>
+      <c r="XS32" s="34"/>
+      <c r="XT32" s="34"/>
+      <c r="XU32" s="34"/>
+      <c r="XV32" s="34"/>
+      <c r="XW32" s="34"/>
+      <c r="XX32" s="34"/>
+      <c r="XY32" s="34"/>
+      <c r="XZ32" s="34"/>
+      <c r="YA32" s="34"/>
+      <c r="YB32" s="34"/>
+      <c r="YC32" s="34"/>
+      <c r="YD32" s="34"/>
+      <c r="YE32" s="34"/>
+      <c r="YF32" s="34"/>
+      <c r="YG32" s="34"/>
+      <c r="YH32" s="34"/>
+      <c r="YI32" s="34"/>
+      <c r="YJ32" s="34"/>
+      <c r="YK32" s="34"/>
+      <c r="YL32" s="34"/>
+      <c r="YM32" s="34"/>
+      <c r="YN32" s="34"/>
+      <c r="YO32" s="34"/>
+      <c r="YP32" s="34"/>
+      <c r="YQ32" s="34"/>
+      <c r="YR32" s="34"/>
+      <c r="YS32" s="34"/>
+      <c r="YT32" s="34"/>
+      <c r="YU32" s="34"/>
+      <c r="YV32" s="34"/>
+      <c r="YW32" s="34"/>
+      <c r="YX32" s="34"/>
+      <c r="YY32" s="34"/>
+      <c r="YZ32" s="34"/>
+      <c r="ZA32" s="34"/>
+      <c r="ZB32" s="34"/>
+      <c r="ZC32" s="34"/>
+      <c r="ZD32" s="34"/>
+      <c r="ZE32" s="34"/>
+      <c r="ZF32" s="34"/>
+      <c r="ZG32" s="34"/>
+      <c r="ZH32" s="34"/>
+      <c r="ZI32" s="34"/>
+      <c r="ZJ32" s="34"/>
+      <c r="ZK32" s="34"/>
+      <c r="ZL32" s="34"/>
+      <c r="ZM32" s="34"/>
+      <c r="ZN32" s="34"/>
+      <c r="ZO32" s="34"/>
+      <c r="ZP32" s="34"/>
+      <c r="ZQ32" s="34"/>
+      <c r="ZR32" s="34"/>
+      <c r="ZS32" s="34"/>
+      <c r="ZT32" s="34"/>
+      <c r="ZU32" s="34"/>
+      <c r="ZV32" s="34"/>
+      <c r="ZW32" s="34"/>
+      <c r="ZX32" s="34"/>
+      <c r="ZY32" s="34"/>
+      <c r="ZZ32" s="34"/>
+      <c r="AAA32" s="34"/>
+      <c r="AAB32" s="34"/>
+      <c r="AAC32" s="34"/>
+      <c r="AAD32" s="34"/>
+      <c r="AAE32" s="34"/>
+      <c r="AAF32" s="34"/>
+      <c r="AAG32" s="34"/>
+      <c r="AAH32" s="34"/>
+      <c r="AAI32" s="34"/>
+      <c r="AAJ32" s="34"/>
+      <c r="AAK32" s="34"/>
+      <c r="AAL32" s="34"/>
+      <c r="AAM32" s="34"/>
+      <c r="AAN32" s="34"/>
+      <c r="AAO32" s="34"/>
+      <c r="AAP32" s="34"/>
+      <c r="AAQ32" s="34"/>
+      <c r="AAR32" s="34"/>
+      <c r="AAS32" s="34"/>
+      <c r="AAT32" s="34"/>
+      <c r="AAU32" s="34"/>
+      <c r="AAV32" s="34"/>
+      <c r="AAW32" s="34"/>
+      <c r="AAX32" s="34"/>
+      <c r="AAY32" s="34"/>
+      <c r="AAZ32" s="34"/>
+      <c r="ABA32" s="34"/>
+      <c r="ABB32" s="34"/>
+      <c r="ABC32" s="34"/>
+      <c r="ABD32" s="34"/>
+      <c r="ABE32" s="34"/>
+      <c r="ABF32" s="34"/>
+      <c r="ABG32" s="34"/>
+      <c r="ABH32" s="34"/>
+      <c r="ABI32" s="34"/>
+      <c r="ABJ32" s="34"/>
+      <c r="ABK32" s="34"/>
+      <c r="ABL32" s="34"/>
+      <c r="ABM32" s="34"/>
+      <c r="ABN32" s="34"/>
+      <c r="ABO32" s="34"/>
+      <c r="ABP32" s="34"/>
+      <c r="ABQ32" s="34"/>
+      <c r="ABR32" s="34"/>
+      <c r="ABS32" s="34"/>
+      <c r="ABT32" s="34"/>
+      <c r="ABU32" s="34"/>
+      <c r="ABV32" s="34"/>
+      <c r="ABW32" s="34"/>
+      <c r="ABX32" s="34"/>
+      <c r="ABY32" s="34"/>
+      <c r="ABZ32" s="34"/>
+      <c r="ACA32" s="34"/>
+      <c r="ACB32" s="34"/>
+      <c r="ACC32" s="34"/>
+      <c r="ACD32" s="34"/>
+      <c r="ACE32" s="34"/>
+      <c r="ACF32" s="34"/>
+      <c r="ACG32" s="34"/>
+      <c r="ACH32" s="34"/>
+      <c r="ACI32" s="34"/>
+      <c r="ACJ32" s="34"/>
+      <c r="ACK32" s="34"/>
+      <c r="ACL32" s="34"/>
+      <c r="ACM32" s="34"/>
+      <c r="ACN32" s="34"/>
+      <c r="ACO32" s="34"/>
+      <c r="ACP32" s="34"/>
+      <c r="ACQ32" s="34"/>
+      <c r="ACR32" s="34"/>
+      <c r="ACS32" s="34"/>
+      <c r="ACT32" s="34"/>
+      <c r="ACU32" s="34"/>
+      <c r="ACV32" s="34"/>
+      <c r="ACW32" s="34"/>
+      <c r="ACX32" s="34"/>
+      <c r="ACY32" s="34"/>
+      <c r="ACZ32" s="34"/>
+      <c r="ADA32" s="34"/>
+      <c r="ADB32" s="34"/>
+      <c r="ADC32" s="34"/>
+      <c r="ADD32" s="34"/>
+      <c r="ADE32" s="34"/>
+      <c r="ADF32" s="34"/>
+      <c r="ADG32" s="34"/>
+      <c r="ADH32" s="34"/>
+      <c r="ADI32" s="34"/>
+      <c r="ADJ32" s="34"/>
+      <c r="ADK32" s="34"/>
+      <c r="ADL32" s="34"/>
+      <c r="ADM32" s="34"/>
+      <c r="ADN32" s="34"/>
+      <c r="ADO32" s="34"/>
+      <c r="ADP32" s="34"/>
+      <c r="ADQ32" s="34"/>
+      <c r="ADR32" s="34"/>
+      <c r="ADS32" s="34"/>
+      <c r="ADT32" s="34"/>
+      <c r="ADU32" s="34"/>
+      <c r="ADV32" s="34"/>
+      <c r="ADW32" s="34"/>
+      <c r="ADX32" s="34"/>
+      <c r="ADY32" s="34"/>
+      <c r="ADZ32" s="34"/>
+      <c r="AEA32" s="34"/>
+      <c r="AEB32" s="34"/>
+      <c r="AEC32" s="34"/>
+      <c r="AED32" s="34"/>
+      <c r="AEE32" s="34"/>
+      <c r="AEF32" s="34"/>
+      <c r="AEG32" s="34"/>
+      <c r="AEH32" s="34"/>
+      <c r="AEI32" s="34"/>
+      <c r="AEJ32" s="34"/>
+      <c r="AEK32" s="34"/>
+      <c r="AEL32" s="34"/>
+      <c r="AEM32" s="34"/>
+      <c r="AEN32" s="34"/>
+      <c r="AEO32" s="34"/>
+      <c r="AEP32" s="34"/>
+      <c r="AEQ32" s="34"/>
+      <c r="AER32" s="34"/>
+      <c r="AES32" s="34"/>
+      <c r="AET32" s="34"/>
+      <c r="AEU32" s="34"/>
+      <c r="AEV32" s="34"/>
+      <c r="AEW32" s="34"/>
+      <c r="AEX32" s="34"/>
+      <c r="AEY32" s="34"/>
+      <c r="AEZ32" s="34"/>
+      <c r="AFA32" s="34"/>
+      <c r="AFB32" s="34"/>
+      <c r="AFC32" s="34"/>
+      <c r="AFD32" s="34"/>
+      <c r="AFE32" s="34"/>
+      <c r="AFF32" s="34"/>
+      <c r="AFG32" s="34"/>
+      <c r="AFH32" s="34"/>
+      <c r="AFI32" s="34"/>
+      <c r="AFJ32" s="34"/>
+      <c r="AFK32" s="34"/>
+      <c r="AFL32" s="34"/>
+      <c r="AFM32" s="34"/>
+      <c r="AFN32" s="34"/>
+      <c r="AFO32" s="34"/>
+      <c r="AFP32" s="34"/>
+      <c r="AFQ32" s="34"/>
+      <c r="AFR32" s="34"/>
+      <c r="AFS32" s="34"/>
+      <c r="AFT32" s="34"/>
+      <c r="AFU32" s="34"/>
+      <c r="AFV32" s="34"/>
+      <c r="AFW32" s="34"/>
+      <c r="AFX32" s="34"/>
+      <c r="AFY32" s="34"/>
+      <c r="AFZ32" s="34"/>
+      <c r="AGA32" s="34"/>
+      <c r="AGB32" s="34"/>
+      <c r="AGC32" s="34"/>
+      <c r="AGD32" s="34"/>
+      <c r="AGE32" s="34"/>
+      <c r="AGF32" s="34"/>
+      <c r="AGG32" s="34"/>
+      <c r="AGH32" s="34"/>
+      <c r="AGI32" s="34"/>
+      <c r="AGJ32" s="34"/>
+      <c r="AGK32" s="34"/>
+      <c r="AGL32" s="34"/>
+      <c r="AGM32" s="34"/>
+      <c r="AGN32" s="34"/>
+      <c r="AGO32" s="34"/>
+      <c r="AGP32" s="34"/>
+      <c r="AGQ32" s="34"/>
+      <c r="AGR32" s="34"/>
+      <c r="AGS32" s="34"/>
+      <c r="AGT32" s="34"/>
+      <c r="AGU32" s="34"/>
+      <c r="AGV32" s="34"/>
+      <c r="AGW32" s="34"/>
+      <c r="AGX32" s="34"/>
+      <c r="AGY32" s="34"/>
+      <c r="AGZ32" s="34"/>
+      <c r="AHA32" s="34"/>
+      <c r="AHB32" s="34"/>
+      <c r="AHC32" s="34"/>
+      <c r="AHD32" s="34"/>
+      <c r="AHE32" s="34"/>
+      <c r="AHF32" s="34"/>
+      <c r="AHG32" s="34"/>
+      <c r="AHH32" s="34"/>
+      <c r="AHI32" s="34"/>
+      <c r="AHJ32" s="34"/>
+      <c r="AHK32" s="34"/>
+      <c r="AHL32" s="34"/>
+      <c r="AHM32" s="34"/>
+      <c r="AHN32" s="34"/>
+      <c r="AHO32" s="34"/>
+      <c r="AHP32" s="34"/>
+      <c r="AHQ32" s="34"/>
+      <c r="AHR32" s="34"/>
+      <c r="AHS32" s="34"/>
+      <c r="AHT32" s="34"/>
+      <c r="AHU32" s="34"/>
+      <c r="AHV32" s="34"/>
+      <c r="AHW32" s="34"/>
+      <c r="AHX32" s="34"/>
+      <c r="AHY32" s="34"/>
+      <c r="AHZ32" s="34"/>
+      <c r="AIA32" s="34"/>
+      <c r="AIB32" s="34"/>
+      <c r="AIC32" s="34"/>
+      <c r="AID32" s="34"/>
+      <c r="AIE32" s="34"/>
+      <c r="AIF32" s="34"/>
+      <c r="AIG32" s="34"/>
+      <c r="AIH32" s="34"/>
+      <c r="AII32" s="34"/>
+      <c r="AIJ32" s="34"/>
+      <c r="AIK32" s="34"/>
+      <c r="AIL32" s="34"/>
+      <c r="AIM32" s="34"/>
+      <c r="AIN32" s="34"/>
+      <c r="AIO32" s="34"/>
+      <c r="AIP32" s="34"/>
+      <c r="AIQ32" s="34"/>
+      <c r="AIR32" s="34"/>
+      <c r="AIS32" s="34"/>
+      <c r="AIT32" s="34"/>
+      <c r="AIU32" s="34"/>
+      <c r="AIV32" s="34"/>
+      <c r="AIW32" s="34"/>
+      <c r="AIX32" s="34"/>
+      <c r="AIY32" s="34"/>
+      <c r="AIZ32" s="34"/>
+      <c r="AJA32" s="34"/>
+      <c r="AJB32" s="34"/>
+      <c r="AJC32" s="34"/>
+      <c r="AJD32" s="34"/>
+      <c r="AJE32" s="34"/>
+      <c r="AJF32" s="34"/>
+      <c r="AJG32" s="34"/>
+      <c r="AJH32" s="34"/>
+      <c r="AJI32" s="34"/>
+      <c r="AJJ32" s="34"/>
+      <c r="AJK32" s="34"/>
+      <c r="AJL32" s="34"/>
+      <c r="AJM32" s="34"/>
+      <c r="AJN32" s="34"/>
+      <c r="AJO32" s="34"/>
+      <c r="AJP32" s="34"/>
+      <c r="AJQ32" s="34"/>
+      <c r="AJR32" s="34"/>
+      <c r="AJS32" s="34"/>
+      <c r="AJT32" s="34"/>
+      <c r="AJU32" s="34"/>
+      <c r="AJV32" s="34"/>
+      <c r="AJW32" s="34"/>
+      <c r="AJX32" s="34"/>
+      <c r="AJY32" s="34"/>
+      <c r="AJZ32" s="34"/>
+      <c r="AKA32" s="34"/>
+      <c r="AKB32" s="34"/>
+      <c r="AKC32" s="34"/>
+      <c r="AKD32" s="34"/>
+      <c r="AKE32" s="34"/>
+      <c r="AKF32" s="34"/>
+      <c r="AKG32" s="34"/>
+      <c r="AKH32" s="34"/>
+      <c r="AKI32" s="34"/>
+      <c r="AKJ32" s="34"/>
+      <c r="AKK32" s="34"/>
+      <c r="AKL32" s="34"/>
+      <c r="AKM32" s="34"/>
+      <c r="AKN32" s="34"/>
+      <c r="AKO32" s="34"/>
+      <c r="AKP32" s="34"/>
+      <c r="AKQ32" s="34"/>
+      <c r="AKR32" s="34"/>
+      <c r="AKS32" s="34"/>
+      <c r="AKT32" s="34"/>
+      <c r="AKU32" s="34"/>
+      <c r="AKV32" s="34"/>
+      <c r="AKW32" s="34"/>
+      <c r="AKX32" s="34"/>
+      <c r="AKY32" s="34"/>
+      <c r="AKZ32" s="34"/>
+      <c r="ALA32" s="34"/>
+      <c r="ALB32" s="34"/>
+      <c r="ALC32" s="34"/>
+      <c r="ALD32" s="34"/>
+      <c r="ALE32" s="34"/>
+      <c r="ALF32" s="34"/>
+      <c r="ALG32" s="34"/>
+      <c r="ALH32" s="34"/>
+      <c r="ALI32" s="34"/>
+      <c r="ALJ32" s="34"/>
+      <c r="ALK32" s="34"/>
+      <c r="ALL32" s="34"/>
+      <c r="ALM32" s="34"/>
+      <c r="ALN32" s="34"/>
+      <c r="ALO32" s="34"/>
+      <c r="ALP32" s="34"/>
+      <c r="ALQ32" s="34"/>
+      <c r="ALR32" s="34"/>
+      <c r="ALS32" s="34"/>
+      <c r="ALT32" s="34"/>
+      <c r="ALU32" s="34"/>
+      <c r="ALV32" s="34"/>
+      <c r="ALW32" s="34"/>
+      <c r="ALX32" s="34"/>
+      <c r="ALY32" s="34"/>
+      <c r="ALZ32" s="34"/>
+      <c r="AMA32" s="34"/>
+      <c r="AMB32" s="34"/>
+      <c r="AMC32" s="34"/>
+      <c r="AMD32" s="34"/>
+      <c r="AME32" s="34"/>
+      <c r="AMF32" s="34"/>
+      <c r="AMG32" s="34"/>
+      <c r="AMH32" s="34"/>
+      <c r="AMI32" s="34"/>
+      <c r="AMJ32" s="34"/>
+      <c r="AMK32" s="34"/>
+    </row>
+    <row r="33" spans="1:1025" ht="26.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="34"/>
+      <c r="AN33" s="34"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="34"/>
+      <c r="AS33" s="34"/>
+      <c r="AT33" s="34"/>
+      <c r="AU33" s="34"/>
+      <c r="AV33" s="34"/>
+      <c r="AW33" s="34"/>
+      <c r="AX33" s="34"/>
+      <c r="AY33" s="34"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BB33" s="34"/>
+      <c r="BC33" s="34"/>
+      <c r="BD33" s="34"/>
+      <c r="BE33" s="34"/>
+      <c r="BF33" s="34"/>
+      <c r="BG33" s="34"/>
+      <c r="BH33" s="34"/>
+      <c r="BI33" s="34"/>
+      <c r="BJ33" s="34"/>
+      <c r="BK33" s="34"/>
+      <c r="BL33" s="34"/>
+      <c r="BM33" s="34"/>
+      <c r="BN33" s="34"/>
+      <c r="BO33" s="34"/>
+      <c r="BP33" s="34"/>
+      <c r="BQ33" s="34"/>
+      <c r="BR33" s="34"/>
+      <c r="BS33" s="34"/>
+      <c r="BT33" s="34"/>
+      <c r="BU33" s="34"/>
+      <c r="BV33" s="34"/>
+      <c r="BW33" s="34"/>
+      <c r="BX33" s="34"/>
+      <c r="BY33" s="34"/>
+      <c r="BZ33" s="34"/>
+      <c r="CA33" s="34"/>
+      <c r="CB33" s="34"/>
+      <c r="CC33" s="34"/>
+      <c r="CD33" s="34"/>
+      <c r="CE33" s="34"/>
+      <c r="CF33" s="34"/>
+      <c r="CG33" s="34"/>
+      <c r="CH33" s="34"/>
+      <c r="CI33" s="34"/>
+      <c r="CJ33" s="34"/>
+      <c r="CK33" s="34"/>
+      <c r="CL33" s="34"/>
+      <c r="CM33" s="34"/>
+      <c r="CN33" s="34"/>
+      <c r="CO33" s="34"/>
+      <c r="CP33" s="34"/>
+      <c r="CQ33" s="34"/>
+      <c r="CR33" s="34"/>
+      <c r="CS33" s="34"/>
+      <c r="CT33" s="34"/>
+      <c r="CU33" s="34"/>
+      <c r="CV33" s="34"/>
+      <c r="CW33" s="34"/>
+      <c r="CX33" s="34"/>
+      <c r="CY33" s="34"/>
+      <c r="CZ33" s="34"/>
+      <c r="DA33" s="34"/>
+      <c r="DB33" s="34"/>
+      <c r="DC33" s="34"/>
+      <c r="DD33" s="34"/>
+      <c r="DE33" s="34"/>
+      <c r="DF33" s="34"/>
+      <c r="DG33" s="34"/>
+      <c r="DH33" s="34"/>
+      <c r="DI33" s="34"/>
+      <c r="DJ33" s="34"/>
+      <c r="DK33" s="34"/>
+      <c r="DL33" s="34"/>
+      <c r="DM33" s="34"/>
+      <c r="DN33" s="34"/>
+      <c r="DO33" s="34"/>
+      <c r="DP33" s="34"/>
+      <c r="DQ33" s="34"/>
+      <c r="DR33" s="34"/>
+      <c r="DS33" s="34"/>
+      <c r="DT33" s="34"/>
+      <c r="DU33" s="34"/>
+      <c r="DV33" s="34"/>
+      <c r="DW33" s="34"/>
+      <c r="DX33" s="34"/>
+      <c r="DY33" s="34"/>
+      <c r="DZ33" s="34"/>
+      <c r="EA33" s="34"/>
+      <c r="EB33" s="34"/>
+      <c r="EC33" s="34"/>
+      <c r="ED33" s="34"/>
+      <c r="EE33" s="34"/>
+      <c r="EF33" s="34"/>
+      <c r="EG33" s="34"/>
+      <c r="EH33" s="34"/>
+      <c r="EI33" s="34"/>
+      <c r="EJ33" s="34"/>
+      <c r="EK33" s="34"/>
+      <c r="EL33" s="34"/>
+      <c r="EM33" s="34"/>
+      <c r="EN33" s="34"/>
+      <c r="EO33" s="34"/>
+      <c r="EP33" s="34"/>
+      <c r="EQ33" s="34"/>
+      <c r="ER33" s="34"/>
+      <c r="ES33" s="34"/>
+      <c r="ET33" s="34"/>
+      <c r="EU33" s="34"/>
+      <c r="EV33" s="34"/>
+      <c r="EW33" s="34"/>
+      <c r="EX33" s="34"/>
+      <c r="EY33" s="34"/>
+      <c r="EZ33" s="34"/>
+      <c r="FA33" s="34"/>
+      <c r="FB33" s="34"/>
+      <c r="FC33" s="34"/>
+      <c r="FD33" s="34"/>
+      <c r="FE33" s="34"/>
+      <c r="FF33" s="34"/>
+      <c r="FG33" s="34"/>
+      <c r="FH33" s="34"/>
+      <c r="FI33" s="34"/>
+      <c r="FJ33" s="34"/>
+      <c r="FK33" s="34"/>
+      <c r="FL33" s="34"/>
+      <c r="FM33" s="34"/>
+      <c r="FN33" s="34"/>
+      <c r="FO33" s="34"/>
+      <c r="FP33" s="34"/>
+      <c r="FQ33" s="34"/>
+      <c r="FR33" s="34"/>
+      <c r="FS33" s="34"/>
+      <c r="FT33" s="34"/>
+      <c r="FU33" s="34"/>
+      <c r="FV33" s="34"/>
+      <c r="FW33" s="34"/>
+      <c r="FX33" s="34"/>
+      <c r="FY33" s="34"/>
+      <c r="FZ33" s="34"/>
+      <c r="GA33" s="34"/>
+      <c r="GB33" s="34"/>
+      <c r="GC33" s="34"/>
+      <c r="GD33" s="34"/>
+      <c r="GE33" s="34"/>
+      <c r="GF33" s="34"/>
+      <c r="GG33" s="34"/>
+      <c r="GH33" s="34"/>
+      <c r="GI33" s="34"/>
+      <c r="GJ33" s="34"/>
+      <c r="GK33" s="34"/>
+      <c r="GL33" s="34"/>
+      <c r="GM33" s="34"/>
+      <c r="GN33" s="34"/>
+      <c r="GO33" s="34"/>
+      <c r="GP33" s="34"/>
+      <c r="GQ33" s="34"/>
+      <c r="GR33" s="34"/>
+      <c r="GS33" s="34"/>
+      <c r="GT33" s="34"/>
+      <c r="GU33" s="34"/>
+      <c r="GV33" s="34"/>
+      <c r="GW33" s="34"/>
+      <c r="GX33" s="34"/>
+      <c r="GY33" s="34"/>
+      <c r="GZ33" s="34"/>
+      <c r="HA33" s="34"/>
+      <c r="HB33" s="34"/>
+      <c r="HC33" s="34"/>
+      <c r="HD33" s="34"/>
+      <c r="HE33" s="34"/>
+      <c r="HF33" s="34"/>
+      <c r="HG33" s="34"/>
+      <c r="HH33" s="34"/>
+      <c r="HI33" s="34"/>
+      <c r="HJ33" s="34"/>
+      <c r="HK33" s="34"/>
+      <c r="HL33" s="34"/>
+      <c r="HM33" s="34"/>
+      <c r="HN33" s="34"/>
+      <c r="HO33" s="34"/>
+      <c r="HP33" s="34"/>
+      <c r="HQ33" s="34"/>
+      <c r="HR33" s="34"/>
+      <c r="HS33" s="34"/>
+      <c r="HT33" s="34"/>
+      <c r="HU33" s="34"/>
+      <c r="HV33" s="34"/>
+      <c r="HW33" s="34"/>
+      <c r="HX33" s="34"/>
+      <c r="HY33" s="34"/>
+      <c r="HZ33" s="34"/>
+      <c r="IA33" s="34"/>
+      <c r="IB33" s="34"/>
+      <c r="IC33" s="34"/>
+      <c r="ID33" s="34"/>
+      <c r="IE33" s="34"/>
+      <c r="IF33" s="34"/>
+      <c r="IG33" s="34"/>
+      <c r="IH33" s="34"/>
+      <c r="II33" s="34"/>
+      <c r="IJ33" s="34"/>
+      <c r="IK33" s="34"/>
+      <c r="IL33" s="34"/>
+      <c r="IM33" s="34"/>
+      <c r="IN33" s="34"/>
+      <c r="IO33" s="34"/>
+      <c r="IP33" s="34"/>
+      <c r="IQ33" s="34"/>
+      <c r="IR33" s="34"/>
+      <c r="IS33" s="34"/>
+      <c r="IT33" s="34"/>
+      <c r="IU33" s="34"/>
+      <c r="IV33" s="34"/>
+      <c r="IW33" s="34"/>
+      <c r="IX33" s="34"/>
+      <c r="IY33" s="34"/>
+      <c r="IZ33" s="34"/>
+      <c r="JA33" s="34"/>
+      <c r="JB33" s="34"/>
+      <c r="JC33" s="34"/>
+      <c r="JD33" s="34"/>
+      <c r="JE33" s="34"/>
+      <c r="JF33" s="34"/>
+      <c r="JG33" s="34"/>
+      <c r="JH33" s="34"/>
+      <c r="JI33" s="34"/>
+      <c r="JJ33" s="34"/>
+      <c r="JK33" s="34"/>
+      <c r="JL33" s="34"/>
+      <c r="JM33" s="34"/>
+      <c r="JN33" s="34"/>
+      <c r="JO33" s="34"/>
+      <c r="JP33" s="34"/>
+      <c r="JQ33" s="34"/>
+      <c r="JR33" s="34"/>
+      <c r="JS33" s="34"/>
+      <c r="JT33" s="34"/>
+      <c r="JU33" s="34"/>
+      <c r="JV33" s="34"/>
+      <c r="JW33" s="34"/>
+      <c r="JX33" s="34"/>
+      <c r="JY33" s="34"/>
+      <c r="JZ33" s="34"/>
+      <c r="KA33" s="34"/>
+      <c r="KB33" s="34"/>
+      <c r="KC33" s="34"/>
+      <c r="KD33" s="34"/>
+      <c r="KE33" s="34"/>
+      <c r="KF33" s="34"/>
+      <c r="KG33" s="34"/>
+      <c r="KH33" s="34"/>
+      <c r="KI33" s="34"/>
+      <c r="KJ33" s="34"/>
+      <c r="KK33" s="34"/>
+      <c r="KL33" s="34"/>
+      <c r="KM33" s="34"/>
+      <c r="KN33" s="34"/>
+      <c r="KO33" s="34"/>
+      <c r="KP33" s="34"/>
+      <c r="KQ33" s="34"/>
+      <c r="KR33" s="34"/>
+      <c r="KS33" s="34"/>
+      <c r="KT33" s="34"/>
+      <c r="KU33" s="34"/>
+      <c r="KV33" s="34"/>
+      <c r="KW33" s="34"/>
+      <c r="KX33" s="34"/>
+      <c r="KY33" s="34"/>
+      <c r="KZ33" s="34"/>
+      <c r="LA33" s="34"/>
+      <c r="LB33" s="34"/>
+      <c r="LC33" s="34"/>
+      <c r="LD33" s="34"/>
+      <c r="LE33" s="34"/>
+      <c r="LF33" s="34"/>
+      <c r="LG33" s="34"/>
+      <c r="LH33" s="34"/>
+      <c r="LI33" s="34"/>
+      <c r="LJ33" s="34"/>
+      <c r="LK33" s="34"/>
+      <c r="LL33" s="34"/>
+      <c r="LM33" s="34"/>
+      <c r="LN33" s="34"/>
+      <c r="LO33" s="34"/>
+      <c r="LP33" s="34"/>
+      <c r="LQ33" s="34"/>
+      <c r="LR33" s="34"/>
+      <c r="LS33" s="34"/>
+      <c r="LT33" s="34"/>
+      <c r="LU33" s="34"/>
+      <c r="LV33" s="34"/>
+      <c r="LW33" s="34"/>
+      <c r="LX33" s="34"/>
+      <c r="LY33" s="34"/>
+      <c r="LZ33" s="34"/>
+      <c r="MA33" s="34"/>
+      <c r="MB33" s="34"/>
+      <c r="MC33" s="34"/>
+      <c r="MD33" s="34"/>
+      <c r="ME33" s="34"/>
+      <c r="MF33" s="34"/>
+      <c r="MG33" s="34"/>
+      <c r="MH33" s="34"/>
+      <c r="MI33" s="34"/>
+      <c r="MJ33" s="34"/>
+      <c r="MK33" s="34"/>
+      <c r="ML33" s="34"/>
+      <c r="MM33" s="34"/>
+      <c r="MN33" s="34"/>
+      <c r="MO33" s="34"/>
+      <c r="MP33" s="34"/>
+      <c r="MQ33" s="34"/>
+      <c r="MR33" s="34"/>
+      <c r="MS33" s="34"/>
+      <c r="MT33" s="34"/>
+      <c r="MU33" s="34"/>
+      <c r="MV33" s="34"/>
+      <c r="MW33" s="34"/>
+      <c r="MX33" s="34"/>
+      <c r="MY33" s="34"/>
+      <c r="MZ33" s="34"/>
+      <c r="NA33" s="34"/>
+      <c r="NB33" s="34"/>
+      <c r="NC33" s="34"/>
+      <c r="ND33" s="34"/>
+      <c r="NE33" s="34"/>
+      <c r="NF33" s="34"/>
+      <c r="NG33" s="34"/>
+      <c r="NH33" s="34"/>
+      <c r="NI33" s="34"/>
+      <c r="NJ33" s="34"/>
+      <c r="NK33" s="34"/>
+      <c r="NL33" s="34"/>
+      <c r="NM33" s="34"/>
+      <c r="NN33" s="34"/>
+      <c r="NO33" s="34"/>
+      <c r="NP33" s="34"/>
+      <c r="NQ33" s="34"/>
+      <c r="NR33" s="34"/>
+      <c r="NS33" s="34"/>
+      <c r="NT33" s="34"/>
+      <c r="NU33" s="34"/>
+      <c r="NV33" s="34"/>
+      <c r="NW33" s="34"/>
+      <c r="NX33" s="34"/>
+      <c r="NY33" s="34"/>
+      <c r="NZ33" s="34"/>
+      <c r="OA33" s="34"/>
+      <c r="OB33" s="34"/>
+      <c r="OC33" s="34"/>
+      <c r="OD33" s="34"/>
+      <c r="OE33" s="34"/>
+      <c r="OF33" s="34"/>
+      <c r="OG33" s="34"/>
+      <c r="OH33" s="34"/>
+      <c r="OI33" s="34"/>
+      <c r="OJ33" s="34"/>
+      <c r="OK33" s="34"/>
+      <c r="OL33" s="34"/>
+      <c r="OM33" s="34"/>
+      <c r="ON33" s="34"/>
+      <c r="OO33" s="34"/>
+      <c r="OP33" s="34"/>
+      <c r="OQ33" s="34"/>
+      <c r="OR33" s="34"/>
+      <c r="OS33" s="34"/>
+      <c r="OT33" s="34"/>
+      <c r="OU33" s="34"/>
+      <c r="OV33" s="34"/>
+      <c r="OW33" s="34"/>
+      <c r="OX33" s="34"/>
+      <c r="OY33" s="34"/>
+      <c r="OZ33" s="34"/>
+      <c r="PA33" s="34"/>
+      <c r="PB33" s="34"/>
+      <c r="PC33" s="34"/>
+      <c r="PD33" s="34"/>
+      <c r="PE33" s="34"/>
+      <c r="PF33" s="34"/>
+      <c r="PG33" s="34"/>
+      <c r="PH33" s="34"/>
+      <c r="PI33" s="34"/>
+      <c r="PJ33" s="34"/>
+      <c r="PK33" s="34"/>
+      <c r="PL33" s="34"/>
+      <c r="PM33" s="34"/>
+      <c r="PN33" s="34"/>
+      <c r="PO33" s="34"/>
+      <c r="PP33" s="34"/>
+      <c r="PQ33" s="34"/>
+      <c r="PR33" s="34"/>
+      <c r="PS33" s="34"/>
+      <c r="PT33" s="34"/>
+      <c r="PU33" s="34"/>
+      <c r="PV33" s="34"/>
+      <c r="PW33" s="34"/>
+      <c r="PX33" s="34"/>
+      <c r="PY33" s="34"/>
+      <c r="PZ33" s="34"/>
+      <c r="QA33" s="34"/>
+      <c r="QB33" s="34"/>
+      <c r="QC33" s="34"/>
+      <c r="QD33" s="34"/>
+      <c r="QE33" s="34"/>
+      <c r="QF33" s="34"/>
+      <c r="QG33" s="34"/>
+      <c r="QH33" s="34"/>
+      <c r="QI33" s="34"/>
+      <c r="QJ33" s="34"/>
+      <c r="QK33" s="34"/>
+      <c r="QL33" s="34"/>
+      <c r="QM33" s="34"/>
+      <c r="QN33" s="34"/>
+      <c r="QO33" s="34"/>
+      <c r="QP33" s="34"/>
+      <c r="QQ33" s="34"/>
+      <c r="QR33" s="34"/>
+      <c r="QS33" s="34"/>
+      <c r="QT33" s="34"/>
+      <c r="QU33" s="34"/>
+      <c r="QV33" s="34"/>
+      <c r="QW33" s="34"/>
+      <c r="QX33" s="34"/>
+      <c r="QY33" s="34"/>
+      <c r="QZ33" s="34"/>
+      <c r="RA33" s="34"/>
+      <c r="RB33" s="34"/>
+      <c r="RC33" s="34"/>
+      <c r="RD33" s="34"/>
+      <c r="RE33" s="34"/>
+      <c r="RF33" s="34"/>
+      <c r="RG33" s="34"/>
+      <c r="RH33" s="34"/>
+      <c r="RI33" s="34"/>
+      <c r="RJ33" s="34"/>
+      <c r="RK33" s="34"/>
+      <c r="RL33" s="34"/>
+      <c r="RM33" s="34"/>
+      <c r="RN33" s="34"/>
+      <c r="RO33" s="34"/>
+      <c r="RP33" s="34"/>
+      <c r="RQ33" s="34"/>
+      <c r="RR33" s="34"/>
+      <c r="RS33" s="34"/>
+      <c r="RT33" s="34"/>
+      <c r="RU33" s="34"/>
+      <c r="RV33" s="34"/>
+      <c r="RW33" s="34"/>
+      <c r="RX33" s="34"/>
+      <c r="RY33" s="34"/>
+      <c r="RZ33" s="34"/>
+      <c r="SA33" s="34"/>
+      <c r="SB33" s="34"/>
+      <c r="SC33" s="34"/>
+      <c r="SD33" s="34"/>
+      <c r="SE33" s="34"/>
+      <c r="SF33" s="34"/>
+      <c r="SG33" s="34"/>
+      <c r="SH33" s="34"/>
+      <c r="SI33" s="34"/>
+      <c r="SJ33" s="34"/>
+      <c r="SK33" s="34"/>
+      <c r="SL33" s="34"/>
+      <c r="SM33" s="34"/>
+      <c r="SN33" s="34"/>
+      <c r="SO33" s="34"/>
+      <c r="SP33" s="34"/>
+      <c r="SQ33" s="34"/>
+      <c r="SR33" s="34"/>
+      <c r="SS33" s="34"/>
+      <c r="ST33" s="34"/>
+      <c r="SU33" s="34"/>
+      <c r="SV33" s="34"/>
+      <c r="SW33" s="34"/>
+      <c r="SX33" s="34"/>
+      <c r="SY33" s="34"/>
+      <c r="SZ33" s="34"/>
+      <c r="TA33" s="34"/>
+      <c r="TB33" s="34"/>
+      <c r="TC33" s="34"/>
+      <c r="TD33" s="34"/>
+      <c r="TE33" s="34"/>
+      <c r="TF33" s="34"/>
+      <c r="TG33" s="34"/>
+      <c r="TH33" s="34"/>
+      <c r="TI33" s="34"/>
+      <c r="TJ33" s="34"/>
+      <c r="TK33" s="34"/>
+      <c r="TL33" s="34"/>
+      <c r="TM33" s="34"/>
+      <c r="TN33" s="34"/>
+      <c r="TO33" s="34"/>
+      <c r="TP33" s="34"/>
+      <c r="TQ33" s="34"/>
+      <c r="TR33" s="34"/>
+      <c r="TS33" s="34"/>
+      <c r="TT33" s="34"/>
+      <c r="TU33" s="34"/>
+      <c r="TV33" s="34"/>
+      <c r="TW33" s="34"/>
+      <c r="TX33" s="34"/>
+      <c r="TY33" s="34"/>
+      <c r="TZ33" s="34"/>
+      <c r="UA33" s="34"/>
+      <c r="UB33" s="34"/>
+      <c r="UC33" s="34"/>
+      <c r="UD33" s="34"/>
+      <c r="UE33" s="34"/>
+      <c r="UF33" s="34"/>
+      <c r="UG33" s="34"/>
+      <c r="UH33" s="34"/>
+      <c r="UI33" s="34"/>
+      <c r="UJ33" s="34"/>
+      <c r="UK33" s="34"/>
+      <c r="UL33" s="34"/>
+      <c r="UM33" s="34"/>
+      <c r="UN33" s="34"/>
+      <c r="UO33" s="34"/>
+      <c r="UP33" s="34"/>
+      <c r="UQ33" s="34"/>
+      <c r="UR33" s="34"/>
+      <c r="US33" s="34"/>
+      <c r="UT33" s="34"/>
+      <c r="UU33" s="34"/>
+      <c r="UV33" s="34"/>
+      <c r="UW33" s="34"/>
+      <c r="UX33" s="34"/>
+      <c r="UY33" s="34"/>
+      <c r="UZ33" s="34"/>
+      <c r="VA33" s="34"/>
+      <c r="VB33" s="34"/>
+      <c r="VC33" s="34"/>
+      <c r="VD33" s="34"/>
+      <c r="VE33" s="34"/>
+      <c r="VF33" s="34"/>
+      <c r="VG33" s="34"/>
+      <c r="VH33" s="34"/>
+      <c r="VI33" s="34"/>
+      <c r="VJ33" s="34"/>
+      <c r="VK33" s="34"/>
+      <c r="VL33" s="34"/>
+      <c r="VM33" s="34"/>
+      <c r="VN33" s="34"/>
+      <c r="VO33" s="34"/>
+      <c r="VP33" s="34"/>
+      <c r="VQ33" s="34"/>
+      <c r="VR33" s="34"/>
+      <c r="VS33" s="34"/>
+      <c r="VT33" s="34"/>
+      <c r="VU33" s="34"/>
+      <c r="VV33" s="34"/>
+      <c r="VW33" s="34"/>
+      <c r="VX33" s="34"/>
+      <c r="VY33" s="34"/>
+      <c r="VZ33" s="34"/>
+      <c r="WA33" s="34"/>
+      <c r="WB33" s="34"/>
+      <c r="WC33" s="34"/>
+      <c r="WD33" s="34"/>
+      <c r="WE33" s="34"/>
+      <c r="WF33" s="34"/>
+      <c r="WG33" s="34"/>
+      <c r="WH33" s="34"/>
+      <c r="WI33" s="34"/>
+      <c r="WJ33" s="34"/>
+      <c r="WK33" s="34"/>
+      <c r="WL33" s="34"/>
+      <c r="WM33" s="34"/>
+      <c r="WN33" s="34"/>
+      <c r="WO33" s="34"/>
+      <c r="WP33" s="34"/>
+      <c r="WQ33" s="34"/>
+      <c r="WR33" s="34"/>
+      <c r="WS33" s="34"/>
+      <c r="WT33" s="34"/>
+      <c r="WU33" s="34"/>
+      <c r="WV33" s="34"/>
+      <c r="WW33" s="34"/>
+      <c r="WX33" s="34"/>
+      <c r="WY33" s="34"/>
+      <c r="WZ33" s="34"/>
+      <c r="XA33" s="34"/>
+      <c r="XB33" s="34"/>
+      <c r="XC33" s="34"/>
+      <c r="XD33" s="34"/>
+      <c r="XE33" s="34"/>
+      <c r="XF33" s="34"/>
+      <c r="XG33" s="34"/>
+      <c r="XH33" s="34"/>
+      <c r="XI33" s="34"/>
+      <c r="XJ33" s="34"/>
+      <c r="XK33" s="34"/>
+      <c r="XL33" s="34"/>
+      <c r="XM33" s="34"/>
+      <c r="XN33" s="34"/>
+      <c r="XO33" s="34"/>
+      <c r="XP33" s="34"/>
+      <c r="XQ33" s="34"/>
+      <c r="XR33" s="34"/>
+      <c r="XS33" s="34"/>
+      <c r="XT33" s="34"/>
+      <c r="XU33" s="34"/>
+      <c r="XV33" s="34"/>
+      <c r="XW33" s="34"/>
+      <c r="XX33" s="34"/>
+      <c r="XY33" s="34"/>
+      <c r="XZ33" s="34"/>
+      <c r="YA33" s="34"/>
+      <c r="YB33" s="34"/>
+      <c r="YC33" s="34"/>
+      <c r="YD33" s="34"/>
+      <c r="YE33" s="34"/>
+      <c r="YF33" s="34"/>
+      <c r="YG33" s="34"/>
+      <c r="YH33" s="34"/>
+      <c r="YI33" s="34"/>
+      <c r="YJ33" s="34"/>
+      <c r="YK33" s="34"/>
+      <c r="YL33" s="34"/>
+      <c r="YM33" s="34"/>
+      <c r="YN33" s="34"/>
+      <c r="YO33" s="34"/>
+      <c r="YP33" s="34"/>
+      <c r="YQ33" s="34"/>
+      <c r="YR33" s="34"/>
+      <c r="YS33" s="34"/>
+      <c r="YT33" s="34"/>
+      <c r="YU33" s="34"/>
+      <c r="YV33" s="34"/>
+      <c r="YW33" s="34"/>
+      <c r="YX33" s="34"/>
+      <c r="YY33" s="34"/>
+      <c r="YZ33" s="34"/>
+      <c r="ZA33" s="34"/>
+      <c r="ZB33" s="34"/>
+      <c r="ZC33" s="34"/>
+      <c r="ZD33" s="34"/>
+      <c r="ZE33" s="34"/>
+      <c r="ZF33" s="34"/>
+      <c r="ZG33" s="34"/>
+      <c r="ZH33" s="34"/>
+      <c r="ZI33" s="34"/>
+      <c r="ZJ33" s="34"/>
+      <c r="ZK33" s="34"/>
+      <c r="ZL33" s="34"/>
+      <c r="ZM33" s="34"/>
+      <c r="ZN33" s="34"/>
+      <c r="ZO33" s="34"/>
+      <c r="ZP33" s="34"/>
+      <c r="ZQ33" s="34"/>
+      <c r="ZR33" s="34"/>
+      <c r="ZS33" s="34"/>
+      <c r="ZT33" s="34"/>
+      <c r="ZU33" s="34"/>
+      <c r="ZV33" s="34"/>
+      <c r="ZW33" s="34"/>
+      <c r="ZX33" s="34"/>
+      <c r="ZY33" s="34"/>
+      <c r="ZZ33" s="34"/>
+      <c r="AAA33" s="34"/>
+      <c r="AAB33" s="34"/>
+      <c r="AAC33" s="34"/>
+      <c r="AAD33" s="34"/>
+      <c r="AAE33" s="34"/>
+      <c r="AAF33" s="34"/>
+      <c r="AAG33" s="34"/>
+      <c r="AAH33" s="34"/>
+      <c r="AAI33" s="34"/>
+      <c r="AAJ33" s="34"/>
+      <c r="AAK33" s="34"/>
+      <c r="AAL33" s="34"/>
+      <c r="AAM33" s="34"/>
+      <c r="AAN33" s="34"/>
+      <c r="AAO33" s="34"/>
+      <c r="AAP33" s="34"/>
+      <c r="AAQ33" s="34"/>
+      <c r="AAR33" s="34"/>
+      <c r="AAS33" s="34"/>
+      <c r="AAT33" s="34"/>
+      <c r="AAU33" s="34"/>
+      <c r="AAV33" s="34"/>
+      <c r="AAW33" s="34"/>
+      <c r="AAX33" s="34"/>
+      <c r="AAY33" s="34"/>
+      <c r="AAZ33" s="34"/>
+      <c r="ABA33" s="34"/>
+      <c r="ABB33" s="34"/>
+      <c r="ABC33" s="34"/>
+      <c r="ABD33" s="34"/>
+      <c r="ABE33" s="34"/>
+      <c r="ABF33" s="34"/>
+      <c r="ABG33" s="34"/>
+      <c r="ABH33" s="34"/>
+      <c r="ABI33" s="34"/>
+      <c r="ABJ33" s="34"/>
+      <c r="ABK33" s="34"/>
+      <c r="ABL33" s="34"/>
+      <c r="ABM33" s="34"/>
+      <c r="ABN33" s="34"/>
+      <c r="ABO33" s="34"/>
+      <c r="ABP33" s="34"/>
+      <c r="ABQ33" s="34"/>
+      <c r="ABR33" s="34"/>
+      <c r="ABS33" s="34"/>
+      <c r="ABT33" s="34"/>
+      <c r="ABU33" s="34"/>
+      <c r="ABV33" s="34"/>
+      <c r="ABW33" s="34"/>
+      <c r="ABX33" s="34"/>
+      <c r="ABY33" s="34"/>
+      <c r="ABZ33" s="34"/>
+      <c r="ACA33" s="34"/>
+      <c r="ACB33" s="34"/>
+      <c r="ACC33" s="34"/>
+      <c r="ACD33" s="34"/>
+      <c r="ACE33" s="34"/>
+      <c r="ACF33" s="34"/>
+      <c r="ACG33" s="34"/>
+      <c r="ACH33" s="34"/>
+      <c r="ACI33" s="34"/>
+      <c r="ACJ33" s="34"/>
+      <c r="ACK33" s="34"/>
+      <c r="ACL33" s="34"/>
+      <c r="ACM33" s="34"/>
+      <c r="ACN33" s="34"/>
+      <c r="ACO33" s="34"/>
+      <c r="ACP33" s="34"/>
+      <c r="ACQ33" s="34"/>
+      <c r="ACR33" s="34"/>
+      <c r="ACS33" s="34"/>
+      <c r="ACT33" s="34"/>
+      <c r="ACU33" s="34"/>
+      <c r="ACV33" s="34"/>
+      <c r="ACW33" s="34"/>
+      <c r="ACX33" s="34"/>
+      <c r="ACY33" s="34"/>
+      <c r="ACZ33" s="34"/>
+      <c r="ADA33" s="34"/>
+      <c r="ADB33" s="34"/>
+      <c r="ADC33" s="34"/>
+      <c r="ADD33" s="34"/>
+      <c r="ADE33" s="34"/>
+      <c r="ADF33" s="34"/>
+      <c r="ADG33" s="34"/>
+      <c r="ADH33" s="34"/>
+      <c r="ADI33" s="34"/>
+      <c r="ADJ33" s="34"/>
+      <c r="ADK33" s="34"/>
+      <c r="ADL33" s="34"/>
+      <c r="ADM33" s="34"/>
+      <c r="ADN33" s="34"/>
+      <c r="ADO33" s="34"/>
+      <c r="ADP33" s="34"/>
+      <c r="ADQ33" s="34"/>
+      <c r="ADR33" s="34"/>
+      <c r="ADS33" s="34"/>
+      <c r="ADT33" s="34"/>
+      <c r="ADU33" s="34"/>
+      <c r="ADV33" s="34"/>
+      <c r="ADW33" s="34"/>
+      <c r="ADX33" s="34"/>
+      <c r="ADY33" s="34"/>
+      <c r="ADZ33" s="34"/>
+      <c r="AEA33" s="34"/>
+      <c r="AEB33" s="34"/>
+      <c r="AEC33" s="34"/>
+      <c r="AED33" s="34"/>
+      <c r="AEE33" s="34"/>
+      <c r="AEF33" s="34"/>
+      <c r="AEG33" s="34"/>
+      <c r="AEH33" s="34"/>
+      <c r="AEI33" s="34"/>
+      <c r="AEJ33" s="34"/>
+      <c r="AEK33" s="34"/>
+      <c r="AEL33" s="34"/>
+      <c r="AEM33" s="34"/>
+      <c r="AEN33" s="34"/>
+      <c r="AEO33" s="34"/>
+      <c r="AEP33" s="34"/>
+      <c r="AEQ33" s="34"/>
+      <c r="AER33" s="34"/>
+      <c r="AES33" s="34"/>
+      <c r="AET33" s="34"/>
+      <c r="AEU33" s="34"/>
+      <c r="AEV33" s="34"/>
+      <c r="AEW33" s="34"/>
+      <c r="AEX33" s="34"/>
+      <c r="AEY33" s="34"/>
+      <c r="AEZ33" s="34"/>
+      <c r="AFA33" s="34"/>
+      <c r="AFB33" s="34"/>
+      <c r="AFC33" s="34"/>
+      <c r="AFD33" s="34"/>
+      <c r="AFE33" s="34"/>
+      <c r="AFF33" s="34"/>
+      <c r="AFG33" s="34"/>
+      <c r="AFH33" s="34"/>
+      <c r="AFI33" s="34"/>
+      <c r="AFJ33" s="34"/>
+      <c r="AFK33" s="34"/>
+      <c r="AFL33" s="34"/>
+      <c r="AFM33" s="34"/>
+      <c r="AFN33" s="34"/>
+      <c r="AFO33" s="34"/>
+      <c r="AFP33" s="34"/>
+      <c r="AFQ33" s="34"/>
+      <c r="AFR33" s="34"/>
+      <c r="AFS33" s="34"/>
+      <c r="AFT33" s="34"/>
+      <c r="AFU33" s="34"/>
+      <c r="AFV33" s="34"/>
+      <c r="AFW33" s="34"/>
+      <c r="AFX33" s="34"/>
+      <c r="AFY33" s="34"/>
+      <c r="AFZ33" s="34"/>
+      <c r="AGA33" s="34"/>
+      <c r="AGB33" s="34"/>
+      <c r="AGC33" s="34"/>
+      <c r="AGD33" s="34"/>
+      <c r="AGE33" s="34"/>
+      <c r="AGF33" s="34"/>
+      <c r="AGG33" s="34"/>
+      <c r="AGH33" s="34"/>
+      <c r="AGI33" s="34"/>
+      <c r="AGJ33" s="34"/>
+      <c r="AGK33" s="34"/>
+      <c r="AGL33" s="34"/>
+      <c r="AGM33" s="34"/>
+      <c r="AGN33" s="34"/>
+      <c r="AGO33" s="34"/>
+      <c r="AGP33" s="34"/>
+      <c r="AGQ33" s="34"/>
+      <c r="AGR33" s="34"/>
+      <c r="AGS33" s="34"/>
+      <c r="AGT33" s="34"/>
+      <c r="AGU33" s="34"/>
+      <c r="AGV33" s="34"/>
+      <c r="AGW33" s="34"/>
+      <c r="AGX33" s="34"/>
+      <c r="AGY33" s="34"/>
+      <c r="AGZ33" s="34"/>
+      <c r="AHA33" s="34"/>
+      <c r="AHB33" s="34"/>
+      <c r="AHC33" s="34"/>
+      <c r="AHD33" s="34"/>
+      <c r="AHE33" s="34"/>
+      <c r="AHF33" s="34"/>
+      <c r="AHG33" s="34"/>
+      <c r="AHH33" s="34"/>
+      <c r="AHI33" s="34"/>
+      <c r="AHJ33" s="34"/>
+      <c r="AHK33" s="34"/>
+      <c r="AHL33" s="34"/>
+      <c r="AHM33" s="34"/>
+      <c r="AHN33" s="34"/>
+      <c r="AHO33" s="34"/>
+      <c r="AHP33" s="34"/>
+      <c r="AHQ33" s="34"/>
+      <c r="AHR33" s="34"/>
+      <c r="AHS33" s="34"/>
+      <c r="AHT33" s="34"/>
+      <c r="AHU33" s="34"/>
+      <c r="AHV33" s="34"/>
+      <c r="AHW33" s="34"/>
+      <c r="AHX33" s="34"/>
+      <c r="AHY33" s="34"/>
+      <c r="AHZ33" s="34"/>
+      <c r="AIA33" s="34"/>
+      <c r="AIB33" s="34"/>
+      <c r="AIC33" s="34"/>
+      <c r="AID33" s="34"/>
+      <c r="AIE33" s="34"/>
+      <c r="AIF33" s="34"/>
+      <c r="AIG33" s="34"/>
+      <c r="AIH33" s="34"/>
+      <c r="AII33" s="34"/>
+      <c r="AIJ33" s="34"/>
+      <c r="AIK33" s="34"/>
+      <c r="AIL33" s="34"/>
+      <c r="AIM33" s="34"/>
+      <c r="AIN33" s="34"/>
+      <c r="AIO33" s="34"/>
+      <c r="AIP33" s="34"/>
+      <c r="AIQ33" s="34"/>
+      <c r="AIR33" s="34"/>
+      <c r="AIS33" s="34"/>
+      <c r="AIT33" s="34"/>
+      <c r="AIU33" s="34"/>
+      <c r="AIV33" s="34"/>
+      <c r="AIW33" s="34"/>
+      <c r="AIX33" s="34"/>
+      <c r="AIY33" s="34"/>
+      <c r="AIZ33" s="34"/>
+      <c r="AJA33" s="34"/>
+      <c r="AJB33" s="34"/>
+      <c r="AJC33" s="34"/>
+      <c r="AJD33" s="34"/>
+      <c r="AJE33" s="34"/>
+      <c r="AJF33" s="34"/>
+      <c r="AJG33" s="34"/>
+      <c r="AJH33" s="34"/>
+      <c r="AJI33" s="34"/>
+      <c r="AJJ33" s="34"/>
+      <c r="AJK33" s="34"/>
+      <c r="AJL33" s="34"/>
+      <c r="AJM33" s="34"/>
+      <c r="AJN33" s="34"/>
+      <c r="AJO33" s="34"/>
+      <c r="AJP33" s="34"/>
+      <c r="AJQ33" s="34"/>
+      <c r="AJR33" s="34"/>
+      <c r="AJS33" s="34"/>
+      <c r="AJT33" s="34"/>
+      <c r="AJU33" s="34"/>
+      <c r="AJV33" s="34"/>
+      <c r="AJW33" s="34"/>
+      <c r="AJX33" s="34"/>
+      <c r="AJY33" s="34"/>
+      <c r="AJZ33" s="34"/>
+      <c r="AKA33" s="34"/>
+      <c r="AKB33" s="34"/>
+      <c r="AKC33" s="34"/>
+      <c r="AKD33" s="34"/>
+      <c r="AKE33" s="34"/>
+      <c r="AKF33" s="34"/>
+      <c r="AKG33" s="34"/>
+      <c r="AKH33" s="34"/>
+      <c r="AKI33" s="34"/>
+      <c r="AKJ33" s="34"/>
+      <c r="AKK33" s="34"/>
+      <c r="AKL33" s="34"/>
+      <c r="AKM33" s="34"/>
+      <c r="AKN33" s="34"/>
+      <c r="AKO33" s="34"/>
+      <c r="AKP33" s="34"/>
+      <c r="AKQ33" s="34"/>
+      <c r="AKR33" s="34"/>
+      <c r="AKS33" s="34"/>
+      <c r="AKT33" s="34"/>
+      <c r="AKU33" s="34"/>
+      <c r="AKV33" s="34"/>
+      <c r="AKW33" s="34"/>
+      <c r="AKX33" s="34"/>
+      <c r="AKY33" s="34"/>
+      <c r="AKZ33" s="34"/>
+      <c r="ALA33" s="34"/>
+      <c r="ALB33" s="34"/>
+      <c r="ALC33" s="34"/>
+      <c r="ALD33" s="34"/>
+      <c r="ALE33" s="34"/>
+      <c r="ALF33" s="34"/>
+      <c r="ALG33" s="34"/>
+      <c r="ALH33" s="34"/>
+      <c r="ALI33" s="34"/>
+      <c r="ALJ33" s="34"/>
+      <c r="ALK33" s="34"/>
+      <c r="ALL33" s="34"/>
+      <c r="ALM33" s="34"/>
+      <c r="ALN33" s="34"/>
+      <c r="ALO33" s="34"/>
+      <c r="ALP33" s="34"/>
+      <c r="ALQ33" s="34"/>
+      <c r="ALR33" s="34"/>
+      <c r="ALS33" s="34"/>
+      <c r="ALT33" s="34"/>
+      <c r="ALU33" s="34"/>
+      <c r="ALV33" s="34"/>
+      <c r="ALW33" s="34"/>
+      <c r="ALX33" s="34"/>
+      <c r="ALY33" s="34"/>
+      <c r="ALZ33" s="34"/>
+      <c r="AMA33" s="34"/>
+      <c r="AMB33" s="34"/>
+      <c r="AMC33" s="34"/>
+      <c r="AMD33" s="34"/>
+      <c r="AME33" s="34"/>
+      <c r="AMF33" s="34"/>
+      <c r="AMG33" s="34"/>
+      <c r="AMH33" s="34"/>
+      <c r="AMI33" s="34"/>
+      <c r="AMJ33" s="34"/>
+      <c r="AMK33" s="34"/>
+    </row>
+    <row r="34" spans="1:1025" ht="26.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="34"/>
+      <c r="AU34" s="34"/>
+      <c r="AV34" s="34"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="AY34" s="34"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BB34" s="34"/>
+      <c r="BC34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BE34" s="34"/>
+      <c r="BF34" s="34"/>
+      <c r="BG34" s="34"/>
+      <c r="BH34" s="34"/>
+      <c r="BI34" s="34"/>
+      <c r="BJ34" s="34"/>
+      <c r="BK34" s="34"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BN34" s="34"/>
+      <c r="BO34" s="34"/>
+      <c r="BP34" s="34"/>
+      <c r="BQ34" s="34"/>
+      <c r="BR34" s="34"/>
+      <c r="BS34" s="34"/>
+      <c r="BT34" s="34"/>
+      <c r="BU34" s="34"/>
+      <c r="BV34" s="34"/>
+      <c r="BW34" s="34"/>
+      <c r="BX34" s="34"/>
+      <c r="BY34" s="34"/>
+      <c r="BZ34" s="34"/>
+      <c r="CA34" s="34"/>
+      <c r="CB34" s="34"/>
+      <c r="CC34" s="34"/>
+      <c r="CD34" s="34"/>
+      <c r="CE34" s="34"/>
+      <c r="CF34" s="34"/>
+      <c r="CG34" s="34"/>
+      <c r="CH34" s="34"/>
+      <c r="CI34" s="34"/>
+      <c r="CJ34" s="34"/>
+      <c r="CK34" s="34"/>
+      <c r="CL34" s="34"/>
+      <c r="CM34" s="34"/>
+      <c r="CN34" s="34"/>
+      <c r="CO34" s="34"/>
+      <c r="CP34" s="34"/>
+      <c r="CQ34" s="34"/>
+      <c r="CR34" s="34"/>
+      <c r="CS34" s="34"/>
+      <c r="CT34" s="34"/>
+      <c r="CU34" s="34"/>
+      <c r="CV34" s="34"/>
+      <c r="CW34" s="34"/>
+      <c r="CX34" s="34"/>
+      <c r="CY34" s="34"/>
+      <c r="CZ34" s="34"/>
+      <c r="DA34" s="34"/>
+      <c r="DB34" s="34"/>
+      <c r="DC34" s="34"/>
+      <c r="DD34" s="34"/>
+      <c r="DE34" s="34"/>
+      <c r="DF34" s="34"/>
+      <c r="DG34" s="34"/>
+      <c r="DH34" s="34"/>
+      <c r="DI34" s="34"/>
+      <c r="DJ34" s="34"/>
+      <c r="DK34" s="34"/>
+      <c r="DL34" s="34"/>
+      <c r="DM34" s="34"/>
+      <c r="DN34" s="34"/>
+      <c r="DO34" s="34"/>
+      <c r="DP34" s="34"/>
+      <c r="DQ34" s="34"/>
+      <c r="DR34" s="34"/>
+      <c r="DS34" s="34"/>
+      <c r="DT34" s="34"/>
+      <c r="DU34" s="34"/>
+      <c r="DV34" s="34"/>
+      <c r="DW34" s="34"/>
+      <c r="DX34" s="34"/>
+      <c r="DY34" s="34"/>
+      <c r="DZ34" s="34"/>
+      <c r="EA34" s="34"/>
+      <c r="EB34" s="34"/>
+      <c r="EC34" s="34"/>
+      <c r="ED34" s="34"/>
+      <c r="EE34" s="34"/>
+      <c r="EF34" s="34"/>
+      <c r="EG34" s="34"/>
+      <c r="EH34" s="34"/>
+      <c r="EI34" s="34"/>
+      <c r="EJ34" s="34"/>
+      <c r="EK34" s="34"/>
+      <c r="EL34" s="34"/>
+      <c r="EM34" s="34"/>
+      <c r="EN34" s="34"/>
+      <c r="EO34" s="34"/>
+      <c r="EP34" s="34"/>
+      <c r="EQ34" s="34"/>
+      <c r="ER34" s="34"/>
+      <c r="ES34" s="34"/>
+      <c r="ET34" s="34"/>
+      <c r="EU34" s="34"/>
+      <c r="EV34" s="34"/>
+      <c r="EW34" s="34"/>
+      <c r="EX34" s="34"/>
+      <c r="EY34" s="34"/>
+      <c r="EZ34" s="34"/>
+      <c r="FA34" s="34"/>
+      <c r="FB34" s="34"/>
+      <c r="FC34" s="34"/>
+      <c r="FD34" s="34"/>
+      <c r="FE34" s="34"/>
+      <c r="FF34" s="34"/>
+      <c r="FG34" s="34"/>
+      <c r="FH34" s="34"/>
+      <c r="FI34" s="34"/>
+      <c r="FJ34" s="34"/>
+      <c r="FK34" s="34"/>
+      <c r="FL34" s="34"/>
+      <c r="FM34" s="34"/>
+      <c r="FN34" s="34"/>
+      <c r="FO34" s="34"/>
+      <c r="FP34" s="34"/>
+      <c r="FQ34" s="34"/>
+      <c r="FR34" s="34"/>
+      <c r="FS34" s="34"/>
+      <c r="FT34" s="34"/>
+      <c r="FU34" s="34"/>
+      <c r="FV34" s="34"/>
+      <c r="FW34" s="34"/>
+      <c r="FX34" s="34"/>
+      <c r="FY34" s="34"/>
+      <c r="FZ34" s="34"/>
+      <c r="GA34" s="34"/>
+      <c r="GB34" s="34"/>
+      <c r="GC34" s="34"/>
+      <c r="GD34" s="34"/>
+      <c r="GE34" s="34"/>
+      <c r="GF34" s="34"/>
+      <c r="GG34" s="34"/>
+      <c r="GH34" s="34"/>
+      <c r="GI34" s="34"/>
+      <c r="GJ34" s="34"/>
+      <c r="GK34" s="34"/>
+      <c r="GL34" s="34"/>
+      <c r="GM34" s="34"/>
+      <c r="GN34" s="34"/>
+      <c r="GO34" s="34"/>
+      <c r="GP34" s="34"/>
+      <c r="GQ34" s="34"/>
+      <c r="GR34" s="34"/>
+      <c r="GS34" s="34"/>
+      <c r="GT34" s="34"/>
+      <c r="GU34" s="34"/>
+      <c r="GV34" s="34"/>
+      <c r="GW34" s="34"/>
+      <c r="GX34" s="34"/>
+      <c r="GY34" s="34"/>
+      <c r="GZ34" s="34"/>
+      <c r="HA34" s="34"/>
+      <c r="HB34" s="34"/>
+      <c r="HC34" s="34"/>
+      <c r="HD34" s="34"/>
+      <c r="HE34" s="34"/>
+      <c r="HF34" s="34"/>
+      <c r="HG34" s="34"/>
+      <c r="HH34" s="34"/>
+      <c r="HI34" s="34"/>
+      <c r="HJ34" s="34"/>
+      <c r="HK34" s="34"/>
+      <c r="HL34" s="34"/>
+      <c r="HM34" s="34"/>
+      <c r="HN34" s="34"/>
+      <c r="HO34" s="34"/>
+      <c r="HP34" s="34"/>
+      <c r="HQ34" s="34"/>
+      <c r="HR34" s="34"/>
+      <c r="HS34" s="34"/>
+      <c r="HT34" s="34"/>
+      <c r="HU34" s="34"/>
+      <c r="HV34" s="34"/>
+      <c r="HW34" s="34"/>
+      <c r="HX34" s="34"/>
+      <c r="HY34" s="34"/>
+      <c r="HZ34" s="34"/>
+      <c r="IA34" s="34"/>
+      <c r="IB34" s="34"/>
+      <c r="IC34" s="34"/>
+      <c r="ID34" s="34"/>
+      <c r="IE34" s="34"/>
+      <c r="IF34" s="34"/>
+      <c r="IG34" s="34"/>
+      <c r="IH34" s="34"/>
+      <c r="II34" s="34"/>
+      <c r="IJ34" s="34"/>
+      <c r="IK34" s="34"/>
+      <c r="IL34" s="34"/>
+      <c r="IM34" s="34"/>
+      <c r="IN34" s="34"/>
+      <c r="IO34" s="34"/>
+      <c r="IP34" s="34"/>
+      <c r="IQ34" s="34"/>
+      <c r="IR34" s="34"/>
+      <c r="IS34" s="34"/>
+      <c r="IT34" s="34"/>
+      <c r="IU34" s="34"/>
+      <c r="IV34" s="34"/>
+      <c r="IW34" s="34"/>
+      <c r="IX34" s="34"/>
+      <c r="IY34" s="34"/>
+      <c r="IZ34" s="34"/>
+      <c r="JA34" s="34"/>
+      <c r="JB34" s="34"/>
+      <c r="JC34" s="34"/>
+      <c r="JD34" s="34"/>
+      <c r="JE34" s="34"/>
+      <c r="JF34" s="34"/>
+      <c r="JG34" s="34"/>
+      <c r="JH34" s="34"/>
+      <c r="JI34" s="34"/>
+      <c r="JJ34" s="34"/>
+      <c r="JK34" s="34"/>
+      <c r="JL34" s="34"/>
+      <c r="JM34" s="34"/>
+      <c r="JN34" s="34"/>
+      <c r="JO34" s="34"/>
+      <c r="JP34" s="34"/>
+      <c r="JQ34" s="34"/>
+      <c r="JR34" s="34"/>
+      <c r="JS34" s="34"/>
+      <c r="JT34" s="34"/>
+      <c r="JU34" s="34"/>
+      <c r="JV34" s="34"/>
+      <c r="JW34" s="34"/>
+      <c r="JX34" s="34"/>
+      <c r="JY34" s="34"/>
+      <c r="JZ34" s="34"/>
+      <c r="KA34" s="34"/>
+      <c r="KB34" s="34"/>
+      <c r="KC34" s="34"/>
+      <c r="KD34" s="34"/>
+      <c r="KE34" s="34"/>
+      <c r="KF34" s="34"/>
+      <c r="KG34" s="34"/>
+      <c r="KH34" s="34"/>
+      <c r="KI34" s="34"/>
+      <c r="KJ34" s="34"/>
+      <c r="KK34" s="34"/>
+      <c r="KL34" s="34"/>
+      <c r="KM34" s="34"/>
+      <c r="KN34" s="34"/>
+      <c r="KO34" s="34"/>
+      <c r="KP34" s="34"/>
+      <c r="KQ34" s="34"/>
+      <c r="KR34" s="34"/>
+      <c r="KS34" s="34"/>
+      <c r="KT34" s="34"/>
+      <c r="KU34" s="34"/>
+      <c r="KV34" s="34"/>
+      <c r="KW34" s="34"/>
+      <c r="KX34" s="34"/>
+      <c r="KY34" s="34"/>
+      <c r="KZ34" s="34"/>
+      <c r="LA34" s="34"/>
+      <c r="LB34" s="34"/>
+      <c r="LC34" s="34"/>
+      <c r="LD34" s="34"/>
+      <c r="LE34" s="34"/>
+      <c r="LF34" s="34"/>
+      <c r="LG34" s="34"/>
+      <c r="LH34" s="34"/>
+      <c r="LI34" s="34"/>
+      <c r="LJ34" s="34"/>
+      <c r="LK34" s="34"/>
+      <c r="LL34" s="34"/>
+      <c r="LM34" s="34"/>
+      <c r="LN34" s="34"/>
+      <c r="LO34" s="34"/>
+      <c r="LP34" s="34"/>
+      <c r="LQ34" s="34"/>
+      <c r="LR34" s="34"/>
+      <c r="LS34" s="34"/>
+      <c r="LT34" s="34"/>
+      <c r="LU34" s="34"/>
+      <c r="LV34" s="34"/>
+      <c r="LW34" s="34"/>
+      <c r="LX34" s="34"/>
+      <c r="LY34" s="34"/>
+      <c r="LZ34" s="34"/>
+      <c r="MA34" s="34"/>
+      <c r="MB34" s="34"/>
+      <c r="MC34" s="34"/>
+      <c r="MD34" s="34"/>
+      <c r="ME34" s="34"/>
+      <c r="MF34" s="34"/>
+      <c r="MG34" s="34"/>
+      <c r="MH34" s="34"/>
+      <c r="MI34" s="34"/>
+      <c r="MJ34" s="34"/>
+      <c r="MK34" s="34"/>
+      <c r="ML34" s="34"/>
+      <c r="MM34" s="34"/>
+      <c r="MN34" s="34"/>
+      <c r="MO34" s="34"/>
+      <c r="MP34" s="34"/>
+      <c r="MQ34" s="34"/>
+      <c r="MR34" s="34"/>
+      <c r="MS34" s="34"/>
+      <c r="MT34" s="34"/>
+      <c r="MU34" s="34"/>
+      <c r="MV34" s="34"/>
+      <c r="MW34" s="34"/>
+      <c r="MX34" s="34"/>
+      <c r="MY34" s="34"/>
+      <c r="MZ34" s="34"/>
+      <c r="NA34" s="34"/>
+      <c r="NB34" s="34"/>
+      <c r="NC34" s="34"/>
+      <c r="ND34" s="34"/>
+      <c r="NE34" s="34"/>
+      <c r="NF34" s="34"/>
+      <c r="NG34" s="34"/>
+      <c r="NH34" s="34"/>
+      <c r="NI34" s="34"/>
+      <c r="NJ34" s="34"/>
+      <c r="NK34" s="34"/>
+      <c r="NL34" s="34"/>
+      <c r="NM34" s="34"/>
+      <c r="NN34" s="34"/>
+      <c r="NO34" s="34"/>
+      <c r="NP34" s="34"/>
+      <c r="NQ34" s="34"/>
+      <c r="NR34" s="34"/>
+      <c r="NS34" s="34"/>
+      <c r="NT34" s="34"/>
+      <c r="NU34" s="34"/>
+      <c r="NV34" s="34"/>
+      <c r="NW34" s="34"/>
+      <c r="NX34" s="34"/>
+      <c r="NY34" s="34"/>
+      <c r="NZ34" s="34"/>
+      <c r="OA34" s="34"/>
+      <c r="OB34" s="34"/>
+      <c r="OC34" s="34"/>
+      <c r="OD34" s="34"/>
+      <c r="OE34" s="34"/>
+      <c r="OF34" s="34"/>
+      <c r="OG34" s="34"/>
+      <c r="OH34" s="34"/>
+      <c r="OI34" s="34"/>
+      <c r="OJ34" s="34"/>
+      <c r="OK34" s="34"/>
+      <c r="OL34" s="34"/>
+      <c r="OM34" s="34"/>
+      <c r="ON34" s="34"/>
+      <c r="OO34" s="34"/>
+      <c r="OP34" s="34"/>
+      <c r="OQ34" s="34"/>
+      <c r="OR34" s="34"/>
+      <c r="OS34" s="34"/>
+      <c r="OT34" s="34"/>
+      <c r="OU34" s="34"/>
+      <c r="OV34" s="34"/>
+      <c r="OW34" s="34"/>
+      <c r="OX34" s="34"/>
+      <c r="OY34" s="34"/>
+      <c r="OZ34" s="34"/>
+      <c r="PA34" s="34"/>
+      <c r="PB34" s="34"/>
+      <c r="PC34" s="34"/>
+      <c r="PD34" s="34"/>
+      <c r="PE34" s="34"/>
+      <c r="PF34" s="34"/>
+      <c r="PG34" s="34"/>
+      <c r="PH34" s="34"/>
+      <c r="PI34" s="34"/>
+      <c r="PJ34" s="34"/>
+      <c r="PK34" s="34"/>
+      <c r="PL34" s="34"/>
+      <c r="PM34" s="34"/>
+      <c r="PN34" s="34"/>
+      <c r="PO34" s="34"/>
+      <c r="PP34" s="34"/>
+      <c r="PQ34" s="34"/>
+      <c r="PR34" s="34"/>
+      <c r="PS34" s="34"/>
+      <c r="PT34" s="34"/>
+      <c r="PU34" s="34"/>
+      <c r="PV34" s="34"/>
+      <c r="PW34" s="34"/>
+      <c r="PX34" s="34"/>
+      <c r="PY34" s="34"/>
+      <c r="PZ34" s="34"/>
+      <c r="QA34" s="34"/>
+      <c r="QB34" s="34"/>
+      <c r="QC34" s="34"/>
+      <c r="QD34" s="34"/>
+      <c r="QE34" s="34"/>
+      <c r="QF34" s="34"/>
+      <c r="QG34" s="34"/>
+      <c r="QH34" s="34"/>
+      <c r="QI34" s="34"/>
+      <c r="QJ34" s="34"/>
+      <c r="QK34" s="34"/>
+      <c r="QL34" s="34"/>
+      <c r="QM34" s="34"/>
+      <c r="QN34" s="34"/>
+      <c r="QO34" s="34"/>
+      <c r="QP34" s="34"/>
+      <c r="QQ34" s="34"/>
+      <c r="QR34" s="34"/>
+      <c r="QS34" s="34"/>
+      <c r="QT34" s="34"/>
+      <c r="QU34" s="34"/>
+      <c r="QV34" s="34"/>
+      <c r="QW34" s="34"/>
+      <c r="QX34" s="34"/>
+      <c r="QY34" s="34"/>
+      <c r="QZ34" s="34"/>
+      <c r="RA34" s="34"/>
+      <c r="RB34" s="34"/>
+      <c r="RC34" s="34"/>
+      <c r="RD34" s="34"/>
+      <c r="RE34" s="34"/>
+      <c r="RF34" s="34"/>
+      <c r="RG34" s="34"/>
+      <c r="RH34" s="34"/>
+      <c r="RI34" s="34"/>
+      <c r="RJ34" s="34"/>
+      <c r="RK34" s="34"/>
+      <c r="RL34" s="34"/>
+      <c r="RM34" s="34"/>
+      <c r="RN34" s="34"/>
+      <c r="RO34" s="34"/>
+      <c r="RP34" s="34"/>
+      <c r="RQ34" s="34"/>
+      <c r="RR34" s="34"/>
+      <c r="RS34" s="34"/>
+      <c r="RT34" s="34"/>
+      <c r="RU34" s="34"/>
+      <c r="RV34" s="34"/>
+      <c r="RW34" s="34"/>
+      <c r="RX34" s="34"/>
+      <c r="RY34" s="34"/>
+      <c r="RZ34" s="34"/>
+      <c r="SA34" s="34"/>
+      <c r="SB34" s="34"/>
+      <c r="SC34" s="34"/>
+      <c r="SD34" s="34"/>
+      <c r="SE34" s="34"/>
+      <c r="SF34" s="34"/>
+      <c r="SG34" s="34"/>
+      <c r="SH34" s="34"/>
+      <c r="SI34" s="34"/>
+      <c r="SJ34" s="34"/>
+      <c r="SK34" s="34"/>
+      <c r="SL34" s="34"/>
+      <c r="SM34" s="34"/>
+      <c r="SN34" s="34"/>
+      <c r="SO34" s="34"/>
+      <c r="SP34" s="34"/>
+      <c r="SQ34" s="34"/>
+      <c r="SR34" s="34"/>
+      <c r="SS34" s="34"/>
+      <c r="ST34" s="34"/>
+      <c r="SU34" s="34"/>
+      <c r="SV34" s="34"/>
+      <c r="SW34" s="34"/>
+      <c r="SX34" s="34"/>
+      <c r="SY34" s="34"/>
+      <c r="SZ34" s="34"/>
+      <c r="TA34" s="34"/>
+      <c r="TB34" s="34"/>
+      <c r="TC34" s="34"/>
+      <c r="TD34" s="34"/>
+      <c r="TE34" s="34"/>
+      <c r="TF34" s="34"/>
+      <c r="TG34" s="34"/>
+      <c r="TH34" s="34"/>
+      <c r="TI34" s="34"/>
+      <c r="TJ34" s="34"/>
+      <c r="TK34" s="34"/>
+      <c r="TL34" s="34"/>
+      <c r="TM34" s="34"/>
+      <c r="TN34" s="34"/>
+      <c r="TO34" s="34"/>
+      <c r="TP34" s="34"/>
+      <c r="TQ34" s="34"/>
+      <c r="TR34" s="34"/>
+      <c r="TS34" s="34"/>
+      <c r="TT34" s="34"/>
+      <c r="TU34" s="34"/>
+      <c r="TV34" s="34"/>
+      <c r="TW34" s="34"/>
+      <c r="TX34" s="34"/>
+      <c r="TY34" s="34"/>
+      <c r="TZ34" s="34"/>
+      <c r="UA34" s="34"/>
+      <c r="UB34" s="34"/>
+      <c r="UC34" s="34"/>
+      <c r="UD34" s="34"/>
+      <c r="UE34" s="34"/>
+      <c r="UF34" s="34"/>
+      <c r="UG34" s="34"/>
+      <c r="UH34" s="34"/>
+      <c r="UI34" s="34"/>
+      <c r="UJ34" s="34"/>
+      <c r="UK34" s="34"/>
+      <c r="UL34" s="34"/>
+      <c r="UM34" s="34"/>
+      <c r="UN34" s="34"/>
+      <c r="UO34" s="34"/>
+      <c r="UP34" s="34"/>
+      <c r="UQ34" s="34"/>
+      <c r="UR34" s="34"/>
+      <c r="US34" s="34"/>
+      <c r="UT34" s="34"/>
+      <c r="UU34" s="34"/>
+      <c r="UV34" s="34"/>
+      <c r="UW34" s="34"/>
+      <c r="UX34" s="34"/>
+      <c r="UY34" s="34"/>
+      <c r="UZ34" s="34"/>
+      <c r="VA34" s="34"/>
+      <c r="VB34" s="34"/>
+      <c r="VC34" s="34"/>
+      <c r="VD34" s="34"/>
+      <c r="VE34" s="34"/>
+      <c r="VF34" s="34"/>
+      <c r="VG34" s="34"/>
+      <c r="VH34" s="34"/>
+      <c r="VI34" s="34"/>
+      <c r="VJ34" s="34"/>
+      <c r="VK34" s="34"/>
+      <c r="VL34" s="34"/>
+      <c r="VM34" s="34"/>
+      <c r="VN34" s="34"/>
+      <c r="VO34" s="34"/>
+      <c r="VP34" s="34"/>
+      <c r="VQ34" s="34"/>
+      <c r="VR34" s="34"/>
+      <c r="VS34" s="34"/>
+      <c r="VT34" s="34"/>
+      <c r="VU34" s="34"/>
+      <c r="VV34" s="34"/>
+      <c r="VW34" s="34"/>
+      <c r="VX34" s="34"/>
+      <c r="VY34" s="34"/>
+      <c r="VZ34" s="34"/>
+      <c r="WA34" s="34"/>
+      <c r="WB34" s="34"/>
+      <c r="WC34" s="34"/>
+      <c r="WD34" s="34"/>
+      <c r="WE34" s="34"/>
+      <c r="WF34" s="34"/>
+      <c r="WG34" s="34"/>
+      <c r="WH34" s="34"/>
+      <c r="WI34" s="34"/>
+      <c r="WJ34" s="34"/>
+      <c r="WK34" s="34"/>
+      <c r="WL34" s="34"/>
+      <c r="WM34" s="34"/>
+      <c r="WN34" s="34"/>
+      <c r="WO34" s="34"/>
+      <c r="WP34" s="34"/>
+      <c r="WQ34" s="34"/>
+      <c r="WR34" s="34"/>
+      <c r="WS34" s="34"/>
+      <c r="WT34" s="34"/>
+      <c r="WU34" s="34"/>
+      <c r="WV34" s="34"/>
+      <c r="WW34" s="34"/>
+      <c r="WX34" s="34"/>
+      <c r="WY34" s="34"/>
+      <c r="WZ34" s="34"/>
+      <c r="XA34" s="34"/>
+      <c r="XB34" s="34"/>
+      <c r="XC34" s="34"/>
+      <c r="XD34" s="34"/>
+      <c r="XE34" s="34"/>
+      <c r="XF34" s="34"/>
+      <c r="XG34" s="34"/>
+      <c r="XH34" s="34"/>
+      <c r="XI34" s="34"/>
+      <c r="XJ34" s="34"/>
+      <c r="XK34" s="34"/>
+      <c r="XL34" s="34"/>
+      <c r="XM34" s="34"/>
+      <c r="XN34" s="34"/>
+      <c r="XO34" s="34"/>
+      <c r="XP34" s="34"/>
+      <c r="XQ34" s="34"/>
+      <c r="XR34" s="34"/>
+      <c r="XS34" s="34"/>
+      <c r="XT34" s="34"/>
+      <c r="XU34" s="34"/>
+      <c r="XV34" s="34"/>
+      <c r="XW34" s="34"/>
+      <c r="XX34" s="34"/>
+      <c r="XY34" s="34"/>
+      <c r="XZ34" s="34"/>
+      <c r="YA34" s="34"/>
+      <c r="YB34" s="34"/>
+      <c r="YC34" s="34"/>
+      <c r="YD34" s="34"/>
+      <c r="YE34" s="34"/>
+      <c r="YF34" s="34"/>
+      <c r="YG34" s="34"/>
+      <c r="YH34" s="34"/>
+      <c r="YI34" s="34"/>
+      <c r="YJ34" s="34"/>
+      <c r="YK34" s="34"/>
+      <c r="YL34" s="34"/>
+      <c r="YM34" s="34"/>
+      <c r="YN34" s="34"/>
+      <c r="YO34" s="34"/>
+      <c r="YP34" s="34"/>
+      <c r="YQ34" s="34"/>
+      <c r="YR34" s="34"/>
+      <c r="YS34" s="34"/>
+      <c r="YT34" s="34"/>
+      <c r="YU34" s="34"/>
+      <c r="YV34" s="34"/>
+      <c r="YW34" s="34"/>
+      <c r="YX34" s="34"/>
+      <c r="YY34" s="34"/>
+      <c r="YZ34" s="34"/>
+      <c r="ZA34" s="34"/>
+      <c r="ZB34" s="34"/>
+      <c r="ZC34" s="34"/>
+      <c r="ZD34" s="34"/>
+      <c r="ZE34" s="34"/>
+      <c r="ZF34" s="34"/>
+      <c r="ZG34" s="34"/>
+      <c r="ZH34" s="34"/>
+      <c r="ZI34" s="34"/>
+      <c r="ZJ34" s="34"/>
+      <c r="ZK34" s="34"/>
+      <c r="ZL34" s="34"/>
+      <c r="ZM34" s="34"/>
+      <c r="ZN34" s="34"/>
+      <c r="ZO34" s="34"/>
+      <c r="ZP34" s="34"/>
+      <c r="ZQ34" s="34"/>
+      <c r="ZR34" s="34"/>
+      <c r="ZS34" s="34"/>
+      <c r="ZT34" s="34"/>
+      <c r="ZU34" s="34"/>
+      <c r="ZV34" s="34"/>
+      <c r="ZW34" s="34"/>
+      <c r="ZX34" s="34"/>
+      <c r="ZY34" s="34"/>
+      <c r="ZZ34" s="34"/>
+      <c r="AAA34" s="34"/>
+      <c r="AAB34" s="34"/>
+      <c r="AAC34" s="34"/>
+      <c r="AAD34" s="34"/>
+      <c r="AAE34" s="34"/>
+      <c r="AAF34" s="34"/>
+      <c r="AAG34" s="34"/>
+      <c r="AAH34" s="34"/>
+      <c r="AAI34" s="34"/>
+      <c r="AAJ34" s="34"/>
+      <c r="AAK34" s="34"/>
+      <c r="AAL34" s="34"/>
+      <c r="AAM34" s="34"/>
+      <c r="AAN34" s="34"/>
+      <c r="AAO34" s="34"/>
+      <c r="AAP34" s="34"/>
+      <c r="AAQ34" s="34"/>
+      <c r="AAR34" s="34"/>
+      <c r="AAS34" s="34"/>
+      <c r="AAT34" s="34"/>
+      <c r="AAU34" s="34"/>
+      <c r="AAV34" s="34"/>
+      <c r="AAW34" s="34"/>
+      <c r="AAX34" s="34"/>
+      <c r="AAY34" s="34"/>
+      <c r="AAZ34" s="34"/>
+      <c r="ABA34" s="34"/>
+      <c r="ABB34" s="34"/>
+      <c r="ABC34" s="34"/>
+      <c r="ABD34" s="34"/>
+      <c r="ABE34" s="34"/>
+      <c r="ABF34" s="34"/>
+      <c r="ABG34" s="34"/>
+      <c r="ABH34" s="34"/>
+      <c r="ABI34" s="34"/>
+      <c r="ABJ34" s="34"/>
+      <c r="ABK34" s="34"/>
+      <c r="ABL34" s="34"/>
+      <c r="ABM34" s="34"/>
+      <c r="ABN34" s="34"/>
+      <c r="ABO34" s="34"/>
+      <c r="ABP34" s="34"/>
+      <c r="ABQ34" s="34"/>
+      <c r="ABR34" s="34"/>
+      <c r="ABS34" s="34"/>
+      <c r="ABT34" s="34"/>
+      <c r="ABU34" s="34"/>
+      <c r="ABV34" s="34"/>
+      <c r="ABW34" s="34"/>
+      <c r="ABX34" s="34"/>
+      <c r="ABY34" s="34"/>
+      <c r="ABZ34" s="34"/>
+      <c r="ACA34" s="34"/>
+      <c r="ACB34" s="34"/>
+      <c r="ACC34" s="34"/>
+      <c r="ACD34" s="34"/>
+      <c r="ACE34" s="34"/>
+      <c r="ACF34" s="34"/>
+      <c r="ACG34" s="34"/>
+      <c r="ACH34" s="34"/>
+      <c r="ACI34" s="34"/>
+      <c r="ACJ34" s="34"/>
+      <c r="ACK34" s="34"/>
+      <c r="ACL34" s="34"/>
+      <c r="ACM34" s="34"/>
+      <c r="ACN34" s="34"/>
+      <c r="ACO34" s="34"/>
+      <c r="ACP34" s="34"/>
+      <c r="ACQ34" s="34"/>
+      <c r="ACR34" s="34"/>
+      <c r="ACS34" s="34"/>
+      <c r="ACT34" s="34"/>
+      <c r="ACU34" s="34"/>
+      <c r="ACV34" s="34"/>
+      <c r="ACW34" s="34"/>
+      <c r="ACX34" s="34"/>
+      <c r="ACY34" s="34"/>
+      <c r="ACZ34" s="34"/>
+      <c r="ADA34" s="34"/>
+      <c r="ADB34" s="34"/>
+      <c r="ADC34" s="34"/>
+      <c r="ADD34" s="34"/>
+      <c r="ADE34" s="34"/>
+      <c r="ADF34" s="34"/>
+      <c r="ADG34" s="34"/>
+      <c r="ADH34" s="34"/>
+      <c r="ADI34" s="34"/>
+      <c r="ADJ34" s="34"/>
+      <c r="ADK34" s="34"/>
+      <c r="ADL34" s="34"/>
+      <c r="ADM34" s="34"/>
+      <c r="ADN34" s="34"/>
+      <c r="ADO34" s="34"/>
+      <c r="ADP34" s="34"/>
+      <c r="ADQ34" s="34"/>
+      <c r="ADR34" s="34"/>
+      <c r="ADS34" s="34"/>
+      <c r="ADT34" s="34"/>
+      <c r="ADU34" s="34"/>
+      <c r="ADV34" s="34"/>
+      <c r="ADW34" s="34"/>
+      <c r="ADX34" s="34"/>
+      <c r="ADY34" s="34"/>
+      <c r="ADZ34" s="34"/>
+      <c r="AEA34" s="34"/>
+      <c r="AEB34" s="34"/>
+      <c r="AEC34" s="34"/>
+      <c r="AED34" s="34"/>
+      <c r="AEE34" s="34"/>
+      <c r="AEF34" s="34"/>
+      <c r="AEG34" s="34"/>
+      <c r="AEH34" s="34"/>
+      <c r="AEI34" s="34"/>
+      <c r="AEJ34" s="34"/>
+      <c r="AEK34" s="34"/>
+      <c r="AEL34" s="34"/>
+      <c r="AEM34" s="34"/>
+      <c r="AEN34" s="34"/>
+      <c r="AEO34" s="34"/>
+      <c r="AEP34" s="34"/>
+      <c r="AEQ34" s="34"/>
+      <c r="AER34" s="34"/>
+      <c r="AES34" s="34"/>
+      <c r="AET34" s="34"/>
+      <c r="AEU34" s="34"/>
+      <c r="AEV34" s="34"/>
+      <c r="AEW34" s="34"/>
+      <c r="AEX34" s="34"/>
+      <c r="AEY34" s="34"/>
+      <c r="AEZ34" s="34"/>
+      <c r="AFA34" s="34"/>
+      <c r="AFB34" s="34"/>
+      <c r="AFC34" s="34"/>
+      <c r="AFD34" s="34"/>
+      <c r="AFE34" s="34"/>
+      <c r="AFF34" s="34"/>
+      <c r="AFG34" s="34"/>
+      <c r="AFH34" s="34"/>
+      <c r="AFI34" s="34"/>
+      <c r="AFJ34" s="34"/>
+      <c r="AFK34" s="34"/>
+      <c r="AFL34" s="34"/>
+      <c r="AFM34" s="34"/>
+      <c r="AFN34" s="34"/>
+      <c r="AFO34" s="34"/>
+      <c r="AFP34" s="34"/>
+      <c r="AFQ34" s="34"/>
+      <c r="AFR34" s="34"/>
+      <c r="AFS34" s="34"/>
+      <c r="AFT34" s="34"/>
+      <c r="AFU34" s="34"/>
+      <c r="AFV34" s="34"/>
+      <c r="AFW34" s="34"/>
+      <c r="AFX34" s="34"/>
+      <c r="AFY34" s="34"/>
+      <c r="AFZ34" s="34"/>
+      <c r="AGA34" s="34"/>
+      <c r="AGB34" s="34"/>
+      <c r="AGC34" s="34"/>
+      <c r="AGD34" s="34"/>
+      <c r="AGE34" s="34"/>
+      <c r="AGF34" s="34"/>
+      <c r="AGG34" s="34"/>
+      <c r="AGH34" s="34"/>
+      <c r="AGI34" s="34"/>
+      <c r="AGJ34" s="34"/>
+      <c r="AGK34" s="34"/>
+      <c r="AGL34" s="34"/>
+      <c r="AGM34" s="34"/>
+      <c r="AGN34" s="34"/>
+      <c r="AGO34" s="34"/>
+      <c r="AGP34" s="34"/>
+      <c r="AGQ34" s="34"/>
+      <c r="AGR34" s="34"/>
+      <c r="AGS34" s="34"/>
+      <c r="AGT34" s="34"/>
+      <c r="AGU34" s="34"/>
+      <c r="AGV34" s="34"/>
+      <c r="AGW34" s="34"/>
+      <c r="AGX34" s="34"/>
+      <c r="AGY34" s="34"/>
+      <c r="AGZ34" s="34"/>
+      <c r="AHA34" s="34"/>
+      <c r="AHB34" s="34"/>
+      <c r="AHC34" s="34"/>
+      <c r="AHD34" s="34"/>
+      <c r="AHE34" s="34"/>
+      <c r="AHF34" s="34"/>
+      <c r="AHG34" s="34"/>
+      <c r="AHH34" s="34"/>
+      <c r="AHI34" s="34"/>
+      <c r="AHJ34" s="34"/>
+      <c r="AHK34" s="34"/>
+      <c r="AHL34" s="34"/>
+      <c r="AHM34" s="34"/>
+      <c r="AHN34" s="34"/>
+      <c r="AHO34" s="34"/>
+      <c r="AHP34" s="34"/>
+      <c r="AHQ34" s="34"/>
+      <c r="AHR34" s="34"/>
+      <c r="AHS34" s="34"/>
+      <c r="AHT34" s="34"/>
+      <c r="AHU34" s="34"/>
+      <c r="AHV34" s="34"/>
+      <c r="AHW34" s="34"/>
+      <c r="AHX34" s="34"/>
+      <c r="AHY34" s="34"/>
+      <c r="AHZ34" s="34"/>
+      <c r="AIA34" s="34"/>
+      <c r="AIB34" s="34"/>
+      <c r="AIC34" s="34"/>
+      <c r="AID34" s="34"/>
+      <c r="AIE34" s="34"/>
+      <c r="AIF34" s="34"/>
+      <c r="AIG34" s="34"/>
+      <c r="AIH34" s="34"/>
+      <c r="AII34" s="34"/>
+      <c r="AIJ34" s="34"/>
+      <c r="AIK34" s="34"/>
+      <c r="AIL34" s="34"/>
+      <c r="AIM34" s="34"/>
+      <c r="AIN34" s="34"/>
+      <c r="AIO34" s="34"/>
+      <c r="AIP34" s="34"/>
+      <c r="AIQ34" s="34"/>
+      <c r="AIR34" s="34"/>
+      <c r="AIS34" s="34"/>
+      <c r="AIT34" s="34"/>
+      <c r="AIU34" s="34"/>
+      <c r="AIV34" s="34"/>
+      <c r="AIW34" s="34"/>
+      <c r="AIX34" s="34"/>
+      <c r="AIY34" s="34"/>
+      <c r="AIZ34" s="34"/>
+      <c r="AJA34" s="34"/>
+      <c r="AJB34" s="34"/>
+      <c r="AJC34" s="34"/>
+      <c r="AJD34" s="34"/>
+      <c r="AJE34" s="34"/>
+      <c r="AJF34" s="34"/>
+      <c r="AJG34" s="34"/>
+      <c r="AJH34" s="34"/>
+      <c r="AJI34" s="34"/>
+      <c r="AJJ34" s="34"/>
+      <c r="AJK34" s="34"/>
+      <c r="AJL34" s="34"/>
+      <c r="AJM34" s="34"/>
+      <c r="AJN34" s="34"/>
+      <c r="AJO34" s="34"/>
+      <c r="AJP34" s="34"/>
+      <c r="AJQ34" s="34"/>
+      <c r="AJR34" s="34"/>
+      <c r="AJS34" s="34"/>
+      <c r="AJT34" s="34"/>
+      <c r="AJU34" s="34"/>
+      <c r="AJV34" s="34"/>
+      <c r="AJW34" s="34"/>
+      <c r="AJX34" s="34"/>
+      <c r="AJY34" s="34"/>
+      <c r="AJZ34" s="34"/>
+      <c r="AKA34" s="34"/>
+      <c r="AKB34" s="34"/>
+      <c r="AKC34" s="34"/>
+      <c r="AKD34" s="34"/>
+      <c r="AKE34" s="34"/>
+      <c r="AKF34" s="34"/>
+      <c r="AKG34" s="34"/>
+      <c r="AKH34" s="34"/>
+      <c r="AKI34" s="34"/>
+      <c r="AKJ34" s="34"/>
+      <c r="AKK34" s="34"/>
+      <c r="AKL34" s="34"/>
+      <c r="AKM34" s="34"/>
+      <c r="AKN34" s="34"/>
+      <c r="AKO34" s="34"/>
+      <c r="AKP34" s="34"/>
+      <c r="AKQ34" s="34"/>
+      <c r="AKR34" s="34"/>
+      <c r="AKS34" s="34"/>
+      <c r="AKT34" s="34"/>
+      <c r="AKU34" s="34"/>
+      <c r="AKV34" s="34"/>
+      <c r="AKW34" s="34"/>
+      <c r="AKX34" s="34"/>
+      <c r="AKY34" s="34"/>
+      <c r="AKZ34" s="34"/>
+      <c r="ALA34" s="34"/>
+      <c r="ALB34" s="34"/>
+      <c r="ALC34" s="34"/>
+      <c r="ALD34" s="34"/>
+      <c r="ALE34" s="34"/>
+      <c r="ALF34" s="34"/>
+      <c r="ALG34" s="34"/>
+      <c r="ALH34" s="34"/>
+      <c r="ALI34" s="34"/>
+      <c r="ALJ34" s="34"/>
+      <c r="ALK34" s="34"/>
+      <c r="ALL34" s="34"/>
+      <c r="ALM34" s="34"/>
+      <c r="ALN34" s="34"/>
+      <c r="ALO34" s="34"/>
+      <c r="ALP34" s="34"/>
+      <c r="ALQ34" s="34"/>
+      <c r="ALR34" s="34"/>
+      <c r="ALS34" s="34"/>
+      <c r="ALT34" s="34"/>
+      <c r="ALU34" s="34"/>
+      <c r="ALV34" s="34"/>
+      <c r="ALW34" s="34"/>
+      <c r="ALX34" s="34"/>
+      <c r="ALY34" s="34"/>
+      <c r="ALZ34" s="34"/>
+      <c r="AMA34" s="34"/>
+      <c r="AMB34" s="34"/>
+      <c r="AMC34" s="34"/>
+      <c r="AMD34" s="34"/>
+      <c r="AME34" s="34"/>
+      <c r="AMF34" s="34"/>
+      <c r="AMG34" s="34"/>
+      <c r="AMH34" s="34"/>
+      <c r="AMI34" s="34"/>
+      <c r="AMJ34" s="34"/>
+      <c r="AMK34" s="34"/>
+    </row>
+    <row r="35" spans="1:1025" ht="15.75">
+      <c r="B35" s="38"/>
+      <c r="C35" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:1025" ht="15.75">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="39"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1853,286 +5964,286 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625"/>
-    <col min="2" max="2" width="5.6640625"/>
-    <col min="3" max="3" width="34.109375"/>
-    <col min="4" max="4" width="30.21875"/>
-    <col min="5" max="5" width="23.5546875"/>
-    <col min="6" max="6" width="18.77734375"/>
-    <col min="7" max="7" width="14.33203125"/>
-    <col min="8" max="8" width="36.88671875"/>
-    <col min="9" max="1025" width="10.77734375"/>
+    <col min="1" max="1" width="2.7109375"/>
+    <col min="2" max="2" width="5.7109375"/>
+    <col min="3" max="3" width="34.140625"/>
+    <col min="4" max="4" width="30.28515625"/>
+    <col min="5" max="5" width="23.5703125"/>
+    <col min="6" max="6" width="18.7109375"/>
+    <col min="7" max="7" width="14.28515625"/>
+    <col min="8" max="8" width="36.85546875"/>
+    <col min="9" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="15.6">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:8" ht="15.75">
+      <c r="B3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="58"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="2:8" ht="36.6" customHeight="1">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" ht="30.6" customHeight="1">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="13.2">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-    </row>
-    <row r="7" spans="2:8" ht="13.2">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-    </row>
-    <row r="8" spans="2:8" ht="13.2">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="2:8" ht="13.2">
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-    </row>
-    <row r="10" spans="2:8" ht="13.2">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" spans="2:8" ht="13.2">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-    </row>
-    <row r="12" spans="2:8" ht="13.2">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-    </row>
-    <row r="13" spans="2:8" ht="13.2">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-    </row>
-    <row r="14" spans="2:8" ht="13.2">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-    </row>
-    <row r="15" spans="2:8" ht="13.2">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="2:8" ht="13.2">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-    </row>
-    <row r="17" spans="2:8" ht="13.2">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="2:8" ht="13.2">
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="2:8" ht="13.2">
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="2:8" ht="13.2">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="2:8" ht="13.2">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="2:8" ht="13.2">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="2:8" ht="13.2">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="2:8" ht="13.2">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="2:8" ht="13.2">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="2:8" ht="13.2">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="2:8" ht="13.2">
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="2:8" ht="13.2">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="2:8" ht="13.2">
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="2:8" ht="13.2">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
+    <row r="6" spans="2:8">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
